--- a/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Excel/EquipSuitPropertyConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7611A0B9-654B-4E94-88AC-52119A4135D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EF7FBD-AE6C-4B94-A588-D8B3A0AFBC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="152">
   <si>
     <t>套装名称</t>
   </si>
@@ -579,10 +579,59 @@
     <t>防御提高30 魔防提高30</t>
   </si>
   <si>
+    <t>暴击率提高5%</t>
+  </si>
+  <si>
+    <t>暴击套装</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>攻击提高75</t>
-  </si>
-  <si>
-    <t>暴击率提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提高150</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提高225</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提高300</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御提高60 魔防提高40</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量提高1000点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提高30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避提高3%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提高300 命中率提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -875,7 +924,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1193,13 +1242,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AH73"/>
+  <dimension ref="C1:AH77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7048,7 +7097,7 @@
         <v>135</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F62" s="9">
         <v>0</v>
@@ -7060,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J62" s="7">
         <v>0</v>
@@ -7184,7 +7233,7 @@
         <v>135</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
@@ -7196,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J64" s="7">
         <v>0</v>
@@ -7320,7 +7369,7 @@
         <v>136</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F66" s="9">
         <v>0</v>
@@ -7388,7 +7437,7 @@
         <v>136</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -7421,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="P67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>0</v>
+      </c>
+      <c r="R67" s="7">
         <v>0.05</v>
-      </c>
-      <c r="Q67" s="7">
-        <v>0</v>
-      </c>
-      <c r="R67" s="7">
-        <v>0</v>
       </c>
       <c r="S67" s="7">
         <v>0</v>
@@ -7456,7 +7505,7 @@
         <v>136</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F68" s="9">
         <v>0</v>
@@ -7477,16 +7526,16 @@
         <v>0</v>
       </c>
       <c r="L68" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M68" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N68" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O68" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P68" s="7">
         <v>0</v>
@@ -7524,7 +7573,7 @@
         <v>136</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F69" s="9">
         <v>0</v>
@@ -7536,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="J69" s="7">
         <v>0</v>
@@ -7592,7 +7641,7 @@
         <v>136</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F70" s="9">
         <v>0</v>
@@ -7625,19 +7674,19 @@
         <v>0</v>
       </c>
       <c r="P70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <v>0</v>
+      </c>
+      <c r="S70" s="7">
+        <v>0</v>
+      </c>
+      <c r="T70" s="7">
         <v>0.05</v>
-      </c>
-      <c r="Q70" s="7">
-        <v>0</v>
-      </c>
-      <c r="R70" s="7">
-        <v>0</v>
-      </c>
-      <c r="S70" s="7">
-        <v>0</v>
-      </c>
-      <c r="T70" s="7">
-        <v>0</v>
       </c>
       <c r="U70" s="7">
         <v>0</v>
@@ -7660,13 +7709,13 @@
         <v>136</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F71" s="9">
         <v>0</v>
       </c>
       <c r="G71" s="7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -7681,16 +7730,16 @@
         <v>0</v>
       </c>
       <c r="L71" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M71" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N71" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O71" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P71" s="7">
         <v>0</v>
@@ -7728,7 +7777,7 @@
         <v>136</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F72" s="9">
         <v>0</v>
@@ -7740,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="J72" s="7">
         <v>0</v>
@@ -7796,63 +7845,335 @@
         <v>136</v>
       </c>
       <c r="E73" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>300</v>
+      </c>
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9">
+        <v>0</v>
+      </c>
+      <c r="N73" s="9">
+        <v>0</v>
+      </c>
+      <c r="O73" s="9">
+        <v>0</v>
+      </c>
+      <c r="P73" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="7">
+        <v>0</v>
+      </c>
+      <c r="T73" s="7">
+        <v>0</v>
+      </c>
+      <c r="U73" s="7">
+        <v>0</v>
+      </c>
+      <c r="V73" s="7">
+        <v>0</v>
+      </c>
+      <c r="W73" s="7">
+        <v>0</v>
+      </c>
+      <c r="X73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="7">
+        <v>110531</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0</v>
+      </c>
+      <c r="L74" s="9">
+        <v>0</v>
+      </c>
+      <c r="M74" s="9">
+        <v>0</v>
+      </c>
+      <c r="N74" s="9">
+        <v>0</v>
+      </c>
+      <c r="O74" s="9">
+        <v>0</v>
+      </c>
+      <c r="P74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>0</v>
+      </c>
+      <c r="R74" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="S74" s="7">
+        <v>0</v>
+      </c>
+      <c r="T74" s="7">
+        <v>0</v>
+      </c>
+      <c r="U74" s="7">
+        <v>0</v>
+      </c>
+      <c r="V74" s="7">
+        <v>0</v>
+      </c>
+      <c r="W74" s="7">
+        <v>0</v>
+      </c>
+      <c r="X74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="7">
+        <v>110532</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="9">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>300</v>
+      </c>
+      <c r="J75" s="7">
+        <v>0</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0</v>
+      </c>
+      <c r="L75" s="9">
+        <v>0</v>
+      </c>
+      <c r="M75" s="9">
+        <v>0</v>
+      </c>
+      <c r="N75" s="9">
+        <v>0</v>
+      </c>
+      <c r="O75" s="9">
+        <v>0</v>
+      </c>
+      <c r="P75" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>0</v>
+      </c>
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+      <c r="S75" s="7">
+        <v>0</v>
+      </c>
+      <c r="T75" s="7">
+        <v>0</v>
+      </c>
+      <c r="U75" s="7">
+        <v>0</v>
+      </c>
+      <c r="V75" s="7">
+        <v>0</v>
+      </c>
+      <c r="W75" s="7">
+        <v>0</v>
+      </c>
+      <c r="X75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="7">
+        <v>110533</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" s="9">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="7">
+        <v>0</v>
+      </c>
+      <c r="L76" s="9">
+        <v>0</v>
+      </c>
+      <c r="M76" s="9">
+        <v>0</v>
+      </c>
+      <c r="N76" s="9">
+        <v>0</v>
+      </c>
+      <c r="O76" s="9">
+        <v>0</v>
+      </c>
+      <c r="P76" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>0</v>
+      </c>
+      <c r="R76" s="7">
+        <v>0</v>
+      </c>
+      <c r="S76" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="T76" s="7">
+        <v>0</v>
+      </c>
+      <c r="U76" s="7">
+        <v>0</v>
+      </c>
+      <c r="V76" s="7">
+        <v>0</v>
+      </c>
+      <c r="W76" s="7">
+        <v>0</v>
+      </c>
+      <c r="X76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="7">
+        <v>120001</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F73" s="9">
-        <v>0</v>
-      </c>
-      <c r="G73" s="7">
-        <v>0</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="7">
-        <v>0</v>
-      </c>
-      <c r="J73" s="7">
-        <v>0</v>
-      </c>
-      <c r="K73" s="7">
-        <v>0</v>
-      </c>
-      <c r="L73" s="9">
-        <v>0</v>
-      </c>
-      <c r="M73" s="9">
-        <v>0</v>
-      </c>
-      <c r="N73" s="9">
-        <v>0</v>
-      </c>
-      <c r="O73" s="9">
-        <v>0</v>
-      </c>
-      <c r="P73" s="7">
+      <c r="E77" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="9">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7">
+        <v>0</v>
+      </c>
+      <c r="L77" s="9">
+        <v>0</v>
+      </c>
+      <c r="M77" s="9">
+        <v>0</v>
+      </c>
+      <c r="N77" s="9">
+        <v>0</v>
+      </c>
+      <c r="O77" s="9">
+        <v>0</v>
+      </c>
+      <c r="P77" s="7">
         <v>0.05</v>
       </c>
-      <c r="Q73" s="7">
-        <v>0</v>
-      </c>
-      <c r="R73" s="7">
-        <v>0</v>
-      </c>
-      <c r="S73" s="7">
-        <v>0</v>
-      </c>
-      <c r="T73" s="7">
-        <v>0</v>
-      </c>
-      <c r="U73" s="7">
-        <v>0</v>
-      </c>
-      <c r="V73" s="7">
-        <v>0</v>
-      </c>
-      <c r="W73" s="7">
-        <v>0</v>
-      </c>
-      <c r="X73" s="7">
+      <c r="Q77" s="7">
+        <v>0</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="7">
+        <v>0</v>
+      </c>
+      <c r="T77" s="7">
+        <v>0</v>
+      </c>
+      <c r="U77" s="7">
+        <v>0</v>
+      </c>
+      <c r="V77" s="7">
+        <v>0</v>
+      </c>
+      <c r="W77" s="7">
+        <v>0</v>
+      </c>
+      <c r="X77" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Excel/EquipSuitPropertyConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EF7FBD-AE6C-4B94-A588-D8B3A0AFBC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE70825-2616-4E7E-8BBE-43A0B7C360AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="166">
   <si>
     <t>套装名称</t>
   </si>
@@ -598,10 +598,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>攻击提高300</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>防御提高60 魔防提高40</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -626,11 +622,71 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>闪避提高3%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击提高300 命中率提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量提高1500点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避概率提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>202101,0.05</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实伤害提高200点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>110301,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却时间缩减5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>203601,0.05</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>118101,300</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽视目标防御值300点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202,0.05</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提高5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402,0.05</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -935,6 +991,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,13 +1301,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AH77"/>
+  <dimension ref="C1:AH92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
+      <selection pane="bottomRight" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7097,7 +7156,7 @@
         <v>135</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F62" s="9">
         <v>0</v>
@@ -7437,7 +7496,7 @@
         <v>136</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -7505,7 +7564,7 @@
         <v>136</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F68" s="9">
         <v>0</v>
@@ -7641,7 +7700,7 @@
         <v>136</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F70" s="9">
         <v>0</v>
@@ -7709,7 +7768,7 @@
         <v>136</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F71" s="9">
         <v>0</v>
@@ -7845,7 +7904,7 @@
         <v>136</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F73" s="9">
         <v>0</v>
@@ -7907,13 +7966,13 @@
     </row>
     <row r="74" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="7">
-        <v>110531</v>
+        <v>110511</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F74" s="9">
         <v>0</v>
@@ -7925,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J74" s="7">
         <v>0</v>
@@ -7952,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S74" s="7">
         <v>0</v>
@@ -7975,13 +8034,13 @@
     </row>
     <row r="75" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="7">
-        <v>110532</v>
+        <v>110512</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F75" s="9">
         <v>0</v>
@@ -7993,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="J75" s="7">
         <v>0</v>
@@ -8017,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R75" s="7">
         <v>0</v>
@@ -8043,13 +8102,13 @@
     </row>
     <row r="76" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="7">
-        <v>110533</v>
+        <v>110513</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -8082,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q76" s="7">
         <v>0</v>
@@ -8091,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="S76" s="7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T76" s="7">
         <v>0</v>
@@ -8111,69 +8170,1089 @@
     </row>
     <row r="77" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="7">
+        <v>110521</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="9">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>75</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7">
+        <v>0</v>
+      </c>
+      <c r="L77" s="9">
+        <v>0</v>
+      </c>
+      <c r="M77" s="9">
+        <v>0</v>
+      </c>
+      <c r="N77" s="9">
+        <v>0</v>
+      </c>
+      <c r="O77" s="9">
+        <v>0</v>
+      </c>
+      <c r="P77" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>0</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="7">
+        <v>0</v>
+      </c>
+      <c r="T77" s="7">
+        <v>0</v>
+      </c>
+      <c r="U77" s="7">
+        <v>0</v>
+      </c>
+      <c r="V77" s="7">
+        <v>0</v>
+      </c>
+      <c r="W77" s="7">
+        <v>0</v>
+      </c>
+      <c r="X77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="7">
+        <v>110522</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="9">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>150</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0</v>
+      </c>
+      <c r="L78" s="9">
+        <v>0</v>
+      </c>
+      <c r="M78" s="9">
+        <v>0</v>
+      </c>
+      <c r="N78" s="9">
+        <v>0</v>
+      </c>
+      <c r="O78" s="9">
+        <v>0</v>
+      </c>
+      <c r="P78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="7">
+        <v>0</v>
+      </c>
+      <c r="T78" s="7">
+        <v>0</v>
+      </c>
+      <c r="U78" s="7">
+        <v>0</v>
+      </c>
+      <c r="V78" s="7">
+        <v>0</v>
+      </c>
+      <c r="W78" s="7">
+        <v>0</v>
+      </c>
+      <c r="X78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="7">
+        <v>110523</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F79" s="9">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
+      <c r="K79" s="7">
+        <v>0</v>
+      </c>
+      <c r="L79" s="9">
+        <v>0</v>
+      </c>
+      <c r="M79" s="9">
+        <v>0</v>
+      </c>
+      <c r="N79" s="9">
+        <v>0</v>
+      </c>
+      <c r="O79" s="9">
+        <v>0</v>
+      </c>
+      <c r="P79" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="T79" s="7">
+        <v>0</v>
+      </c>
+      <c r="U79" s="7">
+        <v>0</v>
+      </c>
+      <c r="V79" s="7">
+        <v>0</v>
+      </c>
+      <c r="W79" s="7">
+        <v>0</v>
+      </c>
+      <c r="X79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="7">
+        <v>110531</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" s="9">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0</v>
+      </c>
+      <c r="L80" s="9">
+        <v>0</v>
+      </c>
+      <c r="M80" s="9">
+        <v>0</v>
+      </c>
+      <c r="N80" s="9">
+        <v>0</v>
+      </c>
+      <c r="O80" s="9">
+        <v>0</v>
+      </c>
+      <c r="P80" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>0</v>
+      </c>
+      <c r="R80" s="7">
+        <v>0</v>
+      </c>
+      <c r="S80" s="7">
+        <v>0</v>
+      </c>
+      <c r="T80" s="7">
+        <v>0</v>
+      </c>
+      <c r="U80" s="7">
+        <v>0</v>
+      </c>
+      <c r="V80" s="7">
+        <v>0</v>
+      </c>
+      <c r="W80" s="7">
+        <v>0</v>
+      </c>
+      <c r="X80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="7">
+        <v>110532</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="9">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0</v>
+      </c>
+      <c r="L81" s="9">
+        <v>0</v>
+      </c>
+      <c r="M81" s="9">
+        <v>0</v>
+      </c>
+      <c r="N81" s="9">
+        <v>0</v>
+      </c>
+      <c r="O81" s="9">
+        <v>0</v>
+      </c>
+      <c r="P81" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>0</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="S81" s="7">
+        <v>0</v>
+      </c>
+      <c r="T81" s="7">
+        <v>0</v>
+      </c>
+      <c r="U81" s="7">
+        <v>0</v>
+      </c>
+      <c r="V81" s="7">
+        <v>0</v>
+      </c>
+      <c r="W81" s="7">
+        <v>0</v>
+      </c>
+      <c r="X81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="7">
+        <v>110533</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" s="9">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
+      <c r="K82" s="7">
+        <v>0</v>
+      </c>
+      <c r="L82" s="9">
+        <v>0</v>
+      </c>
+      <c r="M82" s="9">
+        <v>0</v>
+      </c>
+      <c r="N82" s="9">
+        <v>0</v>
+      </c>
+      <c r="O82" s="9">
+        <v>0</v>
+      </c>
+      <c r="P82" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="R82" s="7">
+        <v>0</v>
+      </c>
+      <c r="S82" s="7">
+        <v>0</v>
+      </c>
+      <c r="T82" s="7">
+        <v>0</v>
+      </c>
+      <c r="U82" s="7">
+        <v>0</v>
+      </c>
+      <c r="V82" s="7">
+        <v>0</v>
+      </c>
+      <c r="W82" s="7">
+        <v>0</v>
+      </c>
+      <c r="X82" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="7">
+        <v>110611</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" s="9">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7">
+        <v>0</v>
+      </c>
+      <c r="K83" s="7">
+        <v>0</v>
+      </c>
+      <c r="L83" s="9">
+        <v>0</v>
+      </c>
+      <c r="M83" s="9">
+        <v>0</v>
+      </c>
+      <c r="N83" s="9">
+        <v>0</v>
+      </c>
+      <c r="O83" s="9">
+        <v>0</v>
+      </c>
+      <c r="P83" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>0</v>
+      </c>
+      <c r="R83" s="7">
+        <v>0</v>
+      </c>
+      <c r="S83" s="7">
+        <v>0</v>
+      </c>
+      <c r="T83" s="7">
+        <v>0</v>
+      </c>
+      <c r="U83" s="7">
+        <v>0</v>
+      </c>
+      <c r="V83" s="7">
+        <v>0</v>
+      </c>
+      <c r="W83" s="7">
+        <v>0</v>
+      </c>
+      <c r="X83" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="7">
+        <v>110612</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F84" s="9">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="7">
+        <v>0</v>
+      </c>
+      <c r="L84" s="9">
+        <v>0</v>
+      </c>
+      <c r="M84" s="9">
+        <v>0</v>
+      </c>
+      <c r="N84" s="9">
+        <v>0</v>
+      </c>
+      <c r="O84" s="9">
+        <v>0</v>
+      </c>
+      <c r="P84" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>0</v>
+      </c>
+      <c r="R84" s="7">
+        <v>0</v>
+      </c>
+      <c r="S84" s="7">
+        <v>0</v>
+      </c>
+      <c r="T84" s="7">
+        <v>0</v>
+      </c>
+      <c r="U84" s="7">
+        <v>0</v>
+      </c>
+      <c r="V84" s="7">
+        <v>0</v>
+      </c>
+      <c r="W84" s="7">
+        <v>0</v>
+      </c>
+      <c r="X84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="7">
+        <v>110613</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F85" s="9">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+      <c r="K85" s="7">
+        <v>0</v>
+      </c>
+      <c r="L85" s="9">
+        <v>0</v>
+      </c>
+      <c r="M85" s="9">
+        <v>0</v>
+      </c>
+      <c r="N85" s="9">
+        <v>0</v>
+      </c>
+      <c r="O85" s="9">
+        <v>0</v>
+      </c>
+      <c r="P85" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>0</v>
+      </c>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="7">
+        <v>0</v>
+      </c>
+      <c r="T85" s="7">
+        <v>0</v>
+      </c>
+      <c r="U85" s="7">
+        <v>0</v>
+      </c>
+      <c r="V85" s="7">
+        <v>0</v>
+      </c>
+      <c r="W85" s="7">
+        <v>0</v>
+      </c>
+      <c r="X85" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="7">
+        <v>110621</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" s="9">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>0</v>
+      </c>
+      <c r="K86" s="7">
+        <v>0</v>
+      </c>
+      <c r="L86" s="9">
+        <v>0</v>
+      </c>
+      <c r="M86" s="9">
+        <v>0</v>
+      </c>
+      <c r="N86" s="9">
+        <v>0</v>
+      </c>
+      <c r="O86" s="9">
+        <v>0</v>
+      </c>
+      <c r="P86" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>0</v>
+      </c>
+      <c r="R86" s="7">
+        <v>0</v>
+      </c>
+      <c r="S86" s="7">
+        <v>0</v>
+      </c>
+      <c r="T86" s="7">
+        <v>0</v>
+      </c>
+      <c r="U86" s="7">
+        <v>0</v>
+      </c>
+      <c r="V86" s="7">
+        <v>0</v>
+      </c>
+      <c r="W86" s="7">
+        <v>0</v>
+      </c>
+      <c r="X86" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="7">
+        <v>110622</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F87" s="9">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>0</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0</v>
+      </c>
+      <c r="L87" s="9">
+        <v>0</v>
+      </c>
+      <c r="M87" s="9">
+        <v>0</v>
+      </c>
+      <c r="N87" s="9">
+        <v>0</v>
+      </c>
+      <c r="O87" s="9">
+        <v>0</v>
+      </c>
+      <c r="P87" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>0</v>
+      </c>
+      <c r="R87" s="7">
+        <v>0</v>
+      </c>
+      <c r="S87" s="7">
+        <v>0</v>
+      </c>
+      <c r="T87" s="7">
+        <v>0</v>
+      </c>
+      <c r="U87" s="7">
+        <v>0</v>
+      </c>
+      <c r="V87" s="7">
+        <v>0</v>
+      </c>
+      <c r="W87" s="7">
+        <v>0</v>
+      </c>
+      <c r="X87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="7">
+        <v>110623</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F88" s="9">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="7">
+        <v>0</v>
+      </c>
+      <c r="L88" s="9">
+        <v>0</v>
+      </c>
+      <c r="M88" s="9">
+        <v>0</v>
+      </c>
+      <c r="N88" s="9">
+        <v>0</v>
+      </c>
+      <c r="O88" s="9">
+        <v>0</v>
+      </c>
+      <c r="P88" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>0</v>
+      </c>
+      <c r="R88" s="7">
+        <v>0</v>
+      </c>
+      <c r="S88" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="T88" s="7">
+        <v>0</v>
+      </c>
+      <c r="U88" s="7">
+        <v>0</v>
+      </c>
+      <c r="V88" s="7">
+        <v>0</v>
+      </c>
+      <c r="W88" s="7">
+        <v>0</v>
+      </c>
+      <c r="X88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="7">
+        <v>110631</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F89" s="9">
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>0</v>
+      </c>
+      <c r="K89" s="7">
+        <v>0</v>
+      </c>
+      <c r="L89" s="9">
+        <v>0</v>
+      </c>
+      <c r="M89" s="9">
+        <v>0</v>
+      </c>
+      <c r="N89" s="9">
+        <v>0</v>
+      </c>
+      <c r="O89" s="9">
+        <v>0</v>
+      </c>
+      <c r="P89" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>0</v>
+      </c>
+      <c r="R89" s="7">
+        <v>0</v>
+      </c>
+      <c r="S89" s="7">
+        <v>0</v>
+      </c>
+      <c r="T89" s="7">
+        <v>0</v>
+      </c>
+      <c r="U89" s="7">
+        <v>0</v>
+      </c>
+      <c r="V89" s="7">
+        <v>0</v>
+      </c>
+      <c r="W89" s="7">
+        <v>0</v>
+      </c>
+      <c r="X89" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="7">
+        <v>110632</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90" s="9">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0</v>
+      </c>
+      <c r="L90" s="9">
+        <v>0</v>
+      </c>
+      <c r="M90" s="9">
+        <v>0</v>
+      </c>
+      <c r="N90" s="9">
+        <v>0</v>
+      </c>
+      <c r="O90" s="9">
+        <v>0</v>
+      </c>
+      <c r="P90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>0</v>
+      </c>
+      <c r="R90" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="S90" s="7">
+        <v>0</v>
+      </c>
+      <c r="T90" s="7">
+        <v>0</v>
+      </c>
+      <c r="U90" s="7">
+        <v>0</v>
+      </c>
+      <c r="V90" s="7">
+        <v>0</v>
+      </c>
+      <c r="W90" s="7">
+        <v>0</v>
+      </c>
+      <c r="X90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="7">
+        <v>110633</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F91" s="9">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>300</v>
+      </c>
+      <c r="J91" s="7">
+        <v>0</v>
+      </c>
+      <c r="K91" s="7">
+        <v>0</v>
+      </c>
+      <c r="L91" s="9">
+        <v>0</v>
+      </c>
+      <c r="M91" s="9">
+        <v>0</v>
+      </c>
+      <c r="N91" s="9">
+        <v>0</v>
+      </c>
+      <c r="O91" s="9">
+        <v>0</v>
+      </c>
+      <c r="P91" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="R91" s="7">
+        <v>0</v>
+      </c>
+      <c r="S91" s="7">
+        <v>0</v>
+      </c>
+      <c r="T91" s="7">
+        <v>0</v>
+      </c>
+      <c r="U91" s="7">
+        <v>0</v>
+      </c>
+      <c r="V91" s="7">
+        <v>0</v>
+      </c>
+      <c r="W91" s="7">
+        <v>0</v>
+      </c>
+      <c r="X91" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="7">
         <v>120001</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D92" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E92" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F77" s="9">
-        <v>0</v>
-      </c>
-      <c r="G77" s="7">
-        <v>0</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>0</v>
-      </c>
-      <c r="J77" s="7">
-        <v>0</v>
-      </c>
-      <c r="K77" s="7">
-        <v>0</v>
-      </c>
-      <c r="L77" s="9">
-        <v>0</v>
-      </c>
-      <c r="M77" s="9">
-        <v>0</v>
-      </c>
-      <c r="N77" s="9">
-        <v>0</v>
-      </c>
-      <c r="O77" s="9">
-        <v>0</v>
-      </c>
-      <c r="P77" s="7">
+      <c r="F92" s="9">
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="7">
+        <v>0</v>
+      </c>
+      <c r="L92" s="9">
+        <v>0</v>
+      </c>
+      <c r="M92" s="9">
+        <v>0</v>
+      </c>
+      <c r="N92" s="9">
+        <v>0</v>
+      </c>
+      <c r="O92" s="9">
+        <v>0</v>
+      </c>
+      <c r="P92" s="7">
         <v>0.05</v>
       </c>
-      <c r="Q77" s="7">
-        <v>0</v>
-      </c>
-      <c r="R77" s="7">
-        <v>0</v>
-      </c>
-      <c r="S77" s="7">
-        <v>0</v>
-      </c>
-      <c r="T77" s="7">
-        <v>0</v>
-      </c>
-      <c r="U77" s="7">
-        <v>0</v>
-      </c>
-      <c r="V77" s="7">
-        <v>0</v>
-      </c>
-      <c r="W77" s="7">
-        <v>0</v>
-      </c>
-      <c r="X77" s="7">
+      <c r="Q92" s="7">
+        <v>0</v>
+      </c>
+      <c r="R92" s="7">
+        <v>0</v>
+      </c>
+      <c r="S92" s="7">
+        <v>0</v>
+      </c>
+      <c r="T92" s="7">
+        <v>0</v>
+      </c>
+      <c r="U92" s="7">
+        <v>0</v>
+      </c>
+      <c r="V92" s="7">
+        <v>0</v>
+      </c>
+      <c r="W92" s="7">
+        <v>0</v>
+      </c>
+      <c r="X92" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Excel/EquipSuitPropertyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13665"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitPropertyProto" sheetId="1" r:id="rId1"/>
@@ -638,12 +638,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,13 +660,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.349986266670736"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -703,7 +696,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -715,16 +716,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,29 +738,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -776,7 +755,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,15 +769,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,7 +816,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,9 +830,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,13 +876,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,13 +900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +924,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,31 +1032,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,97 +1056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,6 +1176,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1223,11 +1224,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,17 +1254,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1272,31 +1273,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1305,136 +1291,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1444,51 +1430,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1838,11 +1824,11 @@
   <dimension ref="C1:AH119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="S50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9182,7 +9168,7 @@
     </row>
     <row r="84" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C84" s="18">
-        <f t="shared" ref="C84:C91" si="10">C75+10000</f>
+        <f t="shared" ref="C84:C100" si="10">C75+10000</f>
         <v>130112</v>
       </c>
       <c r="D84" s="18" t="s">
@@ -9734,7 +9720,7 @@
     </row>
     <row r="92" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C92" s="18">
-        <f>C83+10000</f>
+        <f t="shared" si="10"/>
         <v>140111</v>
       </c>
       <c r="D92" s="18" t="s">
@@ -9803,7 +9789,7 @@
     </row>
     <row r="93" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C93" s="18">
-        <f>C84+10000</f>
+        <f t="shared" si="10"/>
         <v>140112</v>
       </c>
       <c r="D93" s="18" t="s">
@@ -9872,7 +9858,7 @@
     </row>
     <row r="94" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C94" s="18">
-        <f>C85+10000</f>
+        <f t="shared" si="10"/>
         <v>140113</v>
       </c>
       <c r="D94" s="18" t="s">
@@ -9941,7 +9927,7 @@
     </row>
     <row r="95" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C95" s="18">
-        <f>C86+10000</f>
+        <f t="shared" si="10"/>
         <v>140121</v>
       </c>
       <c r="D95" s="18" t="s">
@@ -10010,7 +9996,7 @@
     </row>
     <row r="96" ht="20.1" customHeight="1" spans="3:24">
       <c r="C96" s="18">
-        <f>C87+10000</f>
+        <f t="shared" si="10"/>
         <v>140122</v>
       </c>
       <c r="D96" s="13" t="s">
@@ -10079,7 +10065,7 @@
     </row>
     <row r="97" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C97" s="18">
-        <f>C88+10000</f>
+        <f t="shared" si="10"/>
         <v>140123</v>
       </c>
       <c r="D97" s="18" t="s">
@@ -10148,7 +10134,7 @@
     </row>
     <row r="98" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C98" s="18">
-        <f>C89+10000</f>
+        <f t="shared" si="10"/>
         <v>140131</v>
       </c>
       <c r="D98" s="18" t="s">
@@ -10217,7 +10203,7 @@
     </row>
     <row r="99" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C99" s="18">
-        <f>C90+10000</f>
+        <f t="shared" si="10"/>
         <v>140132</v>
       </c>
       <c r="D99" s="18" t="s">
@@ -10286,7 +10272,7 @@
     </row>
     <row r="100" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C100" s="18">
-        <f>C91+10000</f>
+        <f t="shared" si="10"/>
         <v>140133</v>
       </c>
       <c r="D100" s="18" t="s">

--- a/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Excel/EquipSuitPropertyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CADAAB6-FAE0-4688-9ACF-97BB1E079263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E7F560-68C9-42FC-BDF8-DC9826888B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="227">
   <si>
     <t>Id</t>
   </si>
@@ -1395,13 +1395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AH146"/>
+  <dimension ref="C1:AH155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="P125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="P116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E143" sqref="E143"/>
+      <selection pane="bottomRight" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8670,7 +8670,6 @@
     </row>
     <row r="83" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="17">
-        <f>C74+10000</f>
         <v>130111</v>
       </c>
       <c r="D83" s="17" t="s">
@@ -8739,7 +8738,6 @@
     </row>
     <row r="84" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="17">
-        <f t="shared" ref="C84:C100" si="10">C75+10000</f>
         <v>130112</v>
       </c>
       <c r="D84" s="17" t="s">
@@ -8808,7 +8806,6 @@
     </row>
     <row r="85" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="17">
-        <f t="shared" si="10"/>
         <v>130113</v>
       </c>
       <c r="D85" s="17" t="s">
@@ -8877,7 +8874,6 @@
     </row>
     <row r="86" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="17">
-        <f t="shared" si="10"/>
         <v>130121</v>
       </c>
       <c r="D86" s="17" t="s">
@@ -8946,7 +8942,6 @@
     </row>
     <row r="87" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="17">
-        <f t="shared" si="10"/>
         <v>130122</v>
       </c>
       <c r="D87" s="17" t="s">
@@ -9015,7 +9010,6 @@
     </row>
     <row r="88" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="17">
-        <f t="shared" si="10"/>
         <v>130123</v>
       </c>
       <c r="D88" s="17" t="s">
@@ -9084,7 +9078,6 @@
     </row>
     <row r="89" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="17">
-        <f t="shared" si="10"/>
         <v>130131</v>
       </c>
       <c r="D89" s="17" t="s">
@@ -9153,7 +9146,6 @@
     </row>
     <row r="90" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="17">
-        <f t="shared" si="10"/>
         <v>130132</v>
       </c>
       <c r="D90" s="17" t="s">
@@ -9222,7 +9214,6 @@
     </row>
     <row r="91" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="17">
-        <f t="shared" si="10"/>
         <v>130133</v>
       </c>
       <c r="D91" s="17" t="s">
@@ -9291,7 +9282,6 @@
     </row>
     <row r="92" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="17">
-        <f t="shared" si="10"/>
         <v>140111</v>
       </c>
       <c r="D92" s="17" t="s">
@@ -9360,7 +9350,6 @@
     </row>
     <row r="93" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="17">
-        <f t="shared" si="10"/>
         <v>140112</v>
       </c>
       <c r="D93" s="17" t="s">
@@ -9429,7 +9418,6 @@
     </row>
     <row r="94" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="17">
-        <f t="shared" si="10"/>
         <v>140113</v>
       </c>
       <c r="D94" s="17" t="s">
@@ -9498,7 +9486,6 @@
     </row>
     <row r="95" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="17">
-        <f t="shared" si="10"/>
         <v>140121</v>
       </c>
       <c r="D95" s="17" t="s">
@@ -9567,7 +9554,6 @@
     </row>
     <row r="96" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="17">
-        <f t="shared" si="10"/>
         <v>140122</v>
       </c>
       <c r="D96" s="12" t="s">
@@ -9636,7 +9622,6 @@
     </row>
     <row r="97" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="17">
-        <f t="shared" si="10"/>
         <v>140123</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -9705,7 +9690,6 @@
     </row>
     <row r="98" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="17">
-        <f t="shared" si="10"/>
         <v>140131</v>
       </c>
       <c r="D98" s="17" t="s">
@@ -9774,7 +9758,6 @@
     </row>
     <row r="99" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="17">
-        <f t="shared" si="10"/>
         <v>140132</v>
       </c>
       <c r="D99" s="17" t="s">
@@ -9843,7 +9826,6 @@
     </row>
     <row r="100" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="17">
-        <f t="shared" si="10"/>
         <v>140133</v>
       </c>
       <c r="D100" s="17" t="s">
@@ -9912,7 +9894,6 @@
     </row>
     <row r="101" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="17">
-        <f t="shared" ref="C101:C109" si="11">C92+10000</f>
         <v>150111</v>
       </c>
       <c r="D101" s="12" t="s">
@@ -9981,7 +9962,6 @@
     </row>
     <row r="102" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="17">
-        <f t="shared" si="11"/>
         <v>150112</v>
       </c>
       <c r="D102" s="12" t="s">
@@ -10050,7 +10030,6 @@
     </row>
     <row r="103" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="17">
-        <f t="shared" si="11"/>
         <v>150113</v>
       </c>
       <c r="D103" s="12" t="s">
@@ -10119,7 +10098,6 @@
     </row>
     <row r="104" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="17">
-        <f t="shared" si="11"/>
         <v>150121</v>
       </c>
       <c r="D104" s="12" t="s">
@@ -10188,7 +10166,6 @@
     </row>
     <row r="105" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="17">
-        <f t="shared" si="11"/>
         <v>150122</v>
       </c>
       <c r="D105" s="12" t="s">
@@ -10257,7 +10234,6 @@
     </row>
     <row r="106" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="17">
-        <f t="shared" si="11"/>
         <v>150123</v>
       </c>
       <c r="D106" s="12" t="s">
@@ -10326,7 +10302,6 @@
     </row>
     <row r="107" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="17">
-        <f t="shared" si="11"/>
         <v>150131</v>
       </c>
       <c r="D107" s="12" t="s">
@@ -10395,7 +10370,6 @@
     </row>
     <row r="108" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="17">
-        <f t="shared" si="11"/>
         <v>150132</v>
       </c>
       <c r="D108" s="12" t="s">
@@ -10464,7 +10438,6 @@
     </row>
     <row r="109" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="17">
-        <f t="shared" si="11"/>
         <v>150133</v>
       </c>
       <c r="D109" s="12" t="s">
@@ -10533,7 +10506,6 @@
     </row>
     <row r="110" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="17">
-        <f t="shared" ref="C110:C118" si="12">C101+10000</f>
         <v>160111</v>
       </c>
       <c r="D110" s="12" t="s">
@@ -10602,7 +10574,6 @@
     </row>
     <row r="111" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="17">
-        <f t="shared" si="12"/>
         <v>160112</v>
       </c>
       <c r="D111" s="12" t="s">
@@ -10671,7 +10642,6 @@
     </row>
     <row r="112" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="17">
-        <f t="shared" si="12"/>
         <v>160113</v>
       </c>
       <c r="D112" s="12" t="s">
@@ -10740,7 +10710,6 @@
     </row>
     <row r="113" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="17">
-        <f t="shared" si="12"/>
         <v>160121</v>
       </c>
       <c r="D113" s="12" t="s">
@@ -10809,7 +10778,6 @@
     </row>
     <row r="114" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="17">
-        <f t="shared" si="12"/>
         <v>160122</v>
       </c>
       <c r="D114" s="12" t="s">
@@ -10878,7 +10846,6 @@
     </row>
     <row r="115" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="17">
-        <f t="shared" si="12"/>
         <v>160123</v>
       </c>
       <c r="D115" s="12" t="s">
@@ -10947,7 +10914,6 @@
     </row>
     <row r="116" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="17">
-        <f t="shared" si="12"/>
         <v>160131</v>
       </c>
       <c r="D116" s="12" t="s">
@@ -11016,7 +10982,6 @@
     </row>
     <row r="117" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="17">
-        <f t="shared" si="12"/>
         <v>160132</v>
       </c>
       <c r="D117" s="12" t="s">
@@ -11085,7 +11050,6 @@
     </row>
     <row r="118" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="17">
-        <f t="shared" si="12"/>
         <v>160133</v>
       </c>
       <c r="D118" s="12" t="s">
@@ -11153,116 +11117,116 @@
       </c>
     </row>
     <row r="119" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="12">
-        <v>200001</v>
+      <c r="C119" s="17">
+        <v>170111</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="E119" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F119" s="14">
+        <v>0</v>
+      </c>
+      <c r="G119" s="12">
+        <v>0</v>
+      </c>
+      <c r="H119" s="12">
+        <v>0</v>
+      </c>
+      <c r="I119" s="12">
+        <v>0</v>
+      </c>
+      <c r="J119" s="12">
+        <v>0</v>
+      </c>
+      <c r="K119" s="12">
+        <v>0</v>
+      </c>
+      <c r="L119" s="14">
+        <v>0</v>
+      </c>
+      <c r="M119" s="14">
+        <v>0</v>
+      </c>
+      <c r="N119" s="14">
+        <v>0</v>
+      </c>
+      <c r="O119" s="14">
+        <v>0</v>
+      </c>
+      <c r="P119" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="12">
+        <v>0</v>
+      </c>
+      <c r="R119" s="12">
+        <v>0</v>
+      </c>
+      <c r="S119" s="12">
+        <v>0</v>
+      </c>
+      <c r="T119" s="12">
+        <v>0</v>
+      </c>
+      <c r="U119" s="12">
+        <v>0</v>
+      </c>
+      <c r="V119" s="12">
+        <v>0</v>
+      </c>
+      <c r="W119" s="12">
+        <v>0</v>
+      </c>
+      <c r="X119" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="17">
+        <v>170112</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E120" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F119" s="14">
-        <v>0</v>
-      </c>
-      <c r="G119" s="12">
-        <v>0</v>
-      </c>
-      <c r="H119" s="12">
-        <v>0</v>
-      </c>
-      <c r="I119" s="12">
-        <v>0</v>
-      </c>
-      <c r="J119" s="12">
-        <v>0</v>
-      </c>
-      <c r="K119" s="12">
-        <v>0</v>
-      </c>
-      <c r="L119" s="14">
-        <v>0</v>
-      </c>
-      <c r="M119" s="14">
-        <v>0</v>
-      </c>
-      <c r="N119" s="14">
-        <v>0</v>
-      </c>
-      <c r="O119" s="14">
-        <v>0</v>
-      </c>
-      <c r="P119" s="12">
+      <c r="F120" s="14">
+        <v>0</v>
+      </c>
+      <c r="G120" s="12">
+        <v>0</v>
+      </c>
+      <c r="H120" s="12">
+        <v>0</v>
+      </c>
+      <c r="I120" s="12">
+        <v>0</v>
+      </c>
+      <c r="J120" s="12">
+        <v>0</v>
+      </c>
+      <c r="K120" s="12">
+        <v>0</v>
+      </c>
+      <c r="L120" s="14">
+        <v>0</v>
+      </c>
+      <c r="M120" s="14">
+        <v>0</v>
+      </c>
+      <c r="N120" s="14">
+        <v>0</v>
+      </c>
+      <c r="O120" s="14">
+        <v>0</v>
+      </c>
+      <c r="P120" s="12">
         <v>0.05</v>
       </c>
-      <c r="Q119" s="12">
-        <v>0</v>
-      </c>
-      <c r="R119" s="12">
-        <v>0</v>
-      </c>
-      <c r="S119" s="12">
-        <v>0</v>
-      </c>
-      <c r="T119" s="12">
-        <v>0</v>
-      </c>
-      <c r="U119" s="12">
-        <v>0</v>
-      </c>
-      <c r="V119" s="12">
-        <v>0</v>
-      </c>
-      <c r="W119" s="12">
-        <v>0</v>
-      </c>
-      <c r="X119" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="12">
-        <v>300011</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F120" s="14">
-        <v>0</v>
-      </c>
-      <c r="G120" s="12">
-        <v>0</v>
-      </c>
-      <c r="H120" s="12">
-        <v>0</v>
-      </c>
-      <c r="I120" s="12">
-        <v>0</v>
-      </c>
-      <c r="J120" s="12">
-        <v>0</v>
-      </c>
-      <c r="K120" s="12">
-        <v>0</v>
-      </c>
-      <c r="L120" s="14">
-        <v>0</v>
-      </c>
-      <c r="M120" s="14">
-        <v>0</v>
-      </c>
-      <c r="N120" s="14">
-        <v>0</v>
-      </c>
-      <c r="O120" s="14">
-        <v>0</v>
-      </c>
-      <c r="P120" s="12">
-        <v>0</v>
-      </c>
       <c r="Q120" s="12">
         <v>0</v>
       </c>
@@ -11284,19 +11248,19 @@
       <c r="W120" s="12">
         <v>0</v>
       </c>
-      <c r="X120" s="12" t="s">
-        <v>196</v>
+      <c r="X120" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="12">
-        <v>300012</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>184</v>
+      <c r="C121" s="17">
+        <v>170113</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F121" s="14">
         <v>0</v>
@@ -11353,18 +11317,18 @@
         <v>0</v>
       </c>
       <c r="X121" s="12" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="12">
-        <v>300013</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>184</v>
+      <c r="C122" s="17">
+        <v>170121</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F122" s="14">
         <v>0</v>
@@ -11397,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q122" s="12">
         <v>0</v>
@@ -11420,19 +11384,19 @@
       <c r="W122" s="12">
         <v>0</v>
       </c>
-      <c r="X122" s="12">
-        <v>0</v>
+      <c r="X122" s="20" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="12">
-        <v>300021</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>184</v>
+      <c r="C123" s="17">
+        <v>170122</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="F123" s="14">
         <v>0</v>
@@ -11465,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q123" s="12">
         <v>0</v>
@@ -11488,19 +11452,19 @@
       <c r="W123" s="12">
         <v>0</v>
       </c>
-      <c r="X123" s="12" t="s">
-        <v>195</v>
+      <c r="X123" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="12">
-        <v>300022</v>
-      </c>
-      <c r="D124" s="21" t="s">
-        <v>184</v>
+      <c r="C124" s="17">
+        <v>170123</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="F124" s="14">
         <v>0</v>
@@ -11542,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="S124" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T124" s="12">
         <v>0</v>
@@ -11556,19 +11520,19 @@
       <c r="W124" s="12">
         <v>0</v>
       </c>
-      <c r="X124" s="12" t="s">
-        <v>194</v>
+      <c r="X124" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="12">
-        <v>300023</v>
-      </c>
-      <c r="D125" s="21" t="s">
-        <v>184</v>
+      <c r="C125" s="17">
+        <v>170131</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F125" s="14">
         <v>0</v>
@@ -11604,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="Q125" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R125" s="12">
         <v>0</v>
@@ -11624,19 +11588,19 @@
       <c r="W125" s="12">
         <v>0</v>
       </c>
-      <c r="X125" s="12">
-        <v>0</v>
+      <c r="X125" s="20" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="12">
-        <v>300031</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>184</v>
+      <c r="C126" s="17">
+        <v>170132</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F126" s="14">
         <v>0</v>
@@ -11675,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="R126" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S126" s="12">
         <v>0</v>
@@ -11697,14 +11661,14 @@
       </c>
     </row>
     <row r="127" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="12">
-        <v>300032</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>184</v>
+      <c r="C127" s="17">
+        <v>170133</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F127" s="14">
         <v>0</v>
@@ -11716,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="12">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J127" s="12">
         <v>0</v>
@@ -11740,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="Q127" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R127" s="12">
         <v>0</v>
@@ -11761,18 +11725,18 @@
         <v>0</v>
       </c>
       <c r="X127" s="12" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="12">
-        <v>300033</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>184</v>
+        <v>200001</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="F128" s="14">
         <v>0</v>
@@ -11805,13 +11769,13 @@
         <v>0</v>
       </c>
       <c r="P128" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q128" s="12">
         <v>0</v>
       </c>
       <c r="R128" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S128" s="12">
         <v>0</v>
@@ -11834,13 +11798,13 @@
     </row>
     <row r="129" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="12">
-        <v>300111</v>
+        <v>300011</v>
       </c>
       <c r="D129" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F129" s="14">
         <v>0</v>
@@ -11897,18 +11861,18 @@
         <v>0</v>
       </c>
       <c r="X129" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C130" s="12">
-        <v>300112</v>
+        <v>300012</v>
       </c>
       <c r="D130" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F130" s="14">
         <v>0</v>
@@ -11965,18 +11929,18 @@
         <v>0</v>
       </c>
       <c r="X130" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="12">
-        <v>300113</v>
+        <v>300013</v>
       </c>
       <c r="D131" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F131" s="14">
         <v>0</v>
@@ -12009,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="P131" s="12">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q131" s="12">
         <v>0</v>
@@ -12038,13 +12002,13 @@
     </row>
     <row r="132" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="12">
-        <v>300121</v>
+        <v>300021</v>
       </c>
       <c r="D132" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F132" s="14">
         <v>0</v>
@@ -12101,18 +12065,18 @@
         <v>0</v>
       </c>
       <c r="X132" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C133" s="12">
-        <v>300122</v>
+        <v>300022</v>
       </c>
       <c r="D133" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F133" s="14">
         <v>0</v>
@@ -12169,18 +12133,18 @@
         <v>0</v>
       </c>
       <c r="X133" s="12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C134" s="12">
-        <v>300123</v>
+        <v>300023</v>
       </c>
       <c r="D134" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="F134" s="14">
         <v>0</v>
@@ -12216,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="Q134" s="12">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="R134" s="12">
         <v>0</v>
@@ -12242,13 +12206,13 @@
     </row>
     <row r="135" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="12">
-        <v>300131</v>
+        <v>300031</v>
       </c>
       <c r="D135" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F135" s="14">
         <v>0</v>
@@ -12310,13 +12274,13 @@
     </row>
     <row r="136" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="12">
-        <v>300132</v>
+        <v>300032</v>
       </c>
       <c r="D136" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="F136" s="14">
         <v>0</v>
@@ -12373,18 +12337,18 @@
         <v>0</v>
       </c>
       <c r="X136" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="12">
-        <v>300133</v>
+        <v>300033</v>
       </c>
       <c r="D137" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F137" s="14">
         <v>0</v>
@@ -12423,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="R137" s="12">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="S137" s="12">
         <v>0</v>
@@ -12446,13 +12410,13 @@
     </row>
     <row r="138" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="12">
-        <v>300211</v>
+        <v>300111</v>
       </c>
       <c r="D138" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F138" s="14">
         <v>0</v>
@@ -12509,18 +12473,18 @@
         <v>0</v>
       </c>
       <c r="X138" s="12" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="12">
-        <v>300212</v>
+        <v>300112</v>
       </c>
       <c r="D139" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F139" s="14">
         <v>0</v>
@@ -12577,18 +12541,18 @@
         <v>0</v>
       </c>
       <c r="X139" s="12" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="12">
-        <v>300213</v>
+        <v>300113</v>
       </c>
       <c r="D140" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F140" s="14">
         <v>0</v>
@@ -12621,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="12">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q140" s="12">
         <v>0</v>
@@ -12650,13 +12614,13 @@
     </row>
     <row r="141" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="12">
-        <v>300221</v>
+        <v>300121</v>
       </c>
       <c r="D141" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F141" s="14">
         <v>0</v>
@@ -12713,18 +12677,18 @@
         <v>0</v>
       </c>
       <c r="X141" s="12" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="12">
-        <v>300222</v>
+        <v>300122</v>
       </c>
       <c r="D142" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F142" s="14">
         <v>0</v>
@@ -12781,18 +12745,18 @@
         <v>0</v>
       </c>
       <c r="X142" s="12" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="12">
-        <v>300223</v>
+        <v>300123</v>
       </c>
       <c r="D143" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F143" s="14">
         <v>0</v>
@@ -12828,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="Q143" s="12">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R143" s="12">
         <v>0</v>
@@ -12854,13 +12818,13 @@
     </row>
     <row r="144" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C144" s="12">
-        <v>300231</v>
+        <v>300131</v>
       </c>
       <c r="D144" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F144" s="14">
         <v>0</v>
@@ -12922,13 +12886,13 @@
     </row>
     <row r="145" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="12">
-        <v>300232</v>
+        <v>300132</v>
       </c>
       <c r="D145" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F145" s="14">
         <v>0</v>
@@ -12985,74 +12949,686 @@
         <v>0</v>
       </c>
       <c r="X145" s="12" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="12">
-        <v>300233</v>
+        <v>300133</v>
       </c>
       <c r="D146" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E146" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F146" s="14">
+        <v>0</v>
+      </c>
+      <c r="G146" s="12">
+        <v>0</v>
+      </c>
+      <c r="H146" s="12">
+        <v>0</v>
+      </c>
+      <c r="I146" s="12">
+        <v>0</v>
+      </c>
+      <c r="J146" s="12">
+        <v>0</v>
+      </c>
+      <c r="K146" s="12">
+        <v>0</v>
+      </c>
+      <c r="L146" s="14">
+        <v>0</v>
+      </c>
+      <c r="M146" s="14">
+        <v>0</v>
+      </c>
+      <c r="N146" s="14">
+        <v>0</v>
+      </c>
+      <c r="O146" s="14">
+        <v>0</v>
+      </c>
+      <c r="P146" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="12">
+        <v>0</v>
+      </c>
+      <c r="R146" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S146" s="12">
+        <v>0</v>
+      </c>
+      <c r="T146" s="12">
+        <v>0</v>
+      </c>
+      <c r="U146" s="12">
+        <v>0</v>
+      </c>
+      <c r="V146" s="12">
+        <v>0</v>
+      </c>
+      <c r="W146" s="12">
+        <v>0</v>
+      </c>
+      <c r="X146" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="12">
+        <v>300211</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F147" s="14">
+        <v>0</v>
+      </c>
+      <c r="G147" s="12">
+        <v>0</v>
+      </c>
+      <c r="H147" s="12">
+        <v>0</v>
+      </c>
+      <c r="I147" s="12">
+        <v>0</v>
+      </c>
+      <c r="J147" s="12">
+        <v>0</v>
+      </c>
+      <c r="K147" s="12">
+        <v>0</v>
+      </c>
+      <c r="L147" s="14">
+        <v>0</v>
+      </c>
+      <c r="M147" s="14">
+        <v>0</v>
+      </c>
+      <c r="N147" s="14">
+        <v>0</v>
+      </c>
+      <c r="O147" s="14">
+        <v>0</v>
+      </c>
+      <c r="P147" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="12">
+        <v>0</v>
+      </c>
+      <c r="R147" s="12">
+        <v>0</v>
+      </c>
+      <c r="S147" s="12">
+        <v>0</v>
+      </c>
+      <c r="T147" s="12">
+        <v>0</v>
+      </c>
+      <c r="U147" s="12">
+        <v>0</v>
+      </c>
+      <c r="V147" s="12">
+        <v>0</v>
+      </c>
+      <c r="W147" s="12">
+        <v>0</v>
+      </c>
+      <c r="X147" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="148" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="12">
+        <v>300212</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F148" s="14">
+        <v>0</v>
+      </c>
+      <c r="G148" s="12">
+        <v>0</v>
+      </c>
+      <c r="H148" s="12">
+        <v>0</v>
+      </c>
+      <c r="I148" s="12">
+        <v>0</v>
+      </c>
+      <c r="J148" s="12">
+        <v>0</v>
+      </c>
+      <c r="K148" s="12">
+        <v>0</v>
+      </c>
+      <c r="L148" s="14">
+        <v>0</v>
+      </c>
+      <c r="M148" s="14">
+        <v>0</v>
+      </c>
+      <c r="N148" s="14">
+        <v>0</v>
+      </c>
+      <c r="O148" s="14">
+        <v>0</v>
+      </c>
+      <c r="P148" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="12">
+        <v>0</v>
+      </c>
+      <c r="R148" s="12">
+        <v>0</v>
+      </c>
+      <c r="S148" s="12">
+        <v>0</v>
+      </c>
+      <c r="T148" s="12">
+        <v>0</v>
+      </c>
+      <c r="U148" s="12">
+        <v>0</v>
+      </c>
+      <c r="V148" s="12">
+        <v>0</v>
+      </c>
+      <c r="W148" s="12">
+        <v>0</v>
+      </c>
+      <c r="X148" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="149" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="12">
+        <v>300213</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F149" s="14">
+        <v>0</v>
+      </c>
+      <c r="G149" s="12">
+        <v>0</v>
+      </c>
+      <c r="H149" s="12">
+        <v>0</v>
+      </c>
+      <c r="I149" s="12">
+        <v>0</v>
+      </c>
+      <c r="J149" s="12">
+        <v>0</v>
+      </c>
+      <c r="K149" s="12">
+        <v>0</v>
+      </c>
+      <c r="L149" s="14">
+        <v>0</v>
+      </c>
+      <c r="M149" s="14">
+        <v>0</v>
+      </c>
+      <c r="N149" s="14">
+        <v>0</v>
+      </c>
+      <c r="O149" s="14">
+        <v>0</v>
+      </c>
+      <c r="P149" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="Q149" s="12">
+        <v>0</v>
+      </c>
+      <c r="R149" s="12">
+        <v>0</v>
+      </c>
+      <c r="S149" s="12">
+        <v>0</v>
+      </c>
+      <c r="T149" s="12">
+        <v>0</v>
+      </c>
+      <c r="U149" s="12">
+        <v>0</v>
+      </c>
+      <c r="V149" s="12">
+        <v>0</v>
+      </c>
+      <c r="W149" s="12">
+        <v>0</v>
+      </c>
+      <c r="X149" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="12">
+        <v>300221</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F150" s="14">
+        <v>0</v>
+      </c>
+      <c r="G150" s="12">
+        <v>0</v>
+      </c>
+      <c r="H150" s="12">
+        <v>0</v>
+      </c>
+      <c r="I150" s="12">
+        <v>0</v>
+      </c>
+      <c r="J150" s="12">
+        <v>0</v>
+      </c>
+      <c r="K150" s="12">
+        <v>0</v>
+      </c>
+      <c r="L150" s="14">
+        <v>0</v>
+      </c>
+      <c r="M150" s="14">
+        <v>0</v>
+      </c>
+      <c r="N150" s="14">
+        <v>0</v>
+      </c>
+      <c r="O150" s="14">
+        <v>0</v>
+      </c>
+      <c r="P150" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="12">
+        <v>0</v>
+      </c>
+      <c r="R150" s="12">
+        <v>0</v>
+      </c>
+      <c r="S150" s="12">
+        <v>0</v>
+      </c>
+      <c r="T150" s="12">
+        <v>0</v>
+      </c>
+      <c r="U150" s="12">
+        <v>0</v>
+      </c>
+      <c r="V150" s="12">
+        <v>0</v>
+      </c>
+      <c r="W150" s="12">
+        <v>0</v>
+      </c>
+      <c r="X150" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="151" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="12">
+        <v>300222</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F151" s="14">
+        <v>0</v>
+      </c>
+      <c r="G151" s="12">
+        <v>0</v>
+      </c>
+      <c r="H151" s="12">
+        <v>0</v>
+      </c>
+      <c r="I151" s="12">
+        <v>0</v>
+      </c>
+      <c r="J151" s="12">
+        <v>0</v>
+      </c>
+      <c r="K151" s="12">
+        <v>0</v>
+      </c>
+      <c r="L151" s="14">
+        <v>0</v>
+      </c>
+      <c r="M151" s="14">
+        <v>0</v>
+      </c>
+      <c r="N151" s="14">
+        <v>0</v>
+      </c>
+      <c r="O151" s="14">
+        <v>0</v>
+      </c>
+      <c r="P151" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="12">
+        <v>0</v>
+      </c>
+      <c r="R151" s="12">
+        <v>0</v>
+      </c>
+      <c r="S151" s="12">
+        <v>0</v>
+      </c>
+      <c r="T151" s="12">
+        <v>0</v>
+      </c>
+      <c r="U151" s="12">
+        <v>0</v>
+      </c>
+      <c r="V151" s="12">
+        <v>0</v>
+      </c>
+      <c r="W151" s="12">
+        <v>0</v>
+      </c>
+      <c r="X151" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="152" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C152" s="12">
+        <v>300223</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F152" s="14">
+        <v>0</v>
+      </c>
+      <c r="G152" s="12">
+        <v>0</v>
+      </c>
+      <c r="H152" s="12">
+        <v>0</v>
+      </c>
+      <c r="I152" s="12">
+        <v>0</v>
+      </c>
+      <c r="J152" s="12">
+        <v>0</v>
+      </c>
+      <c r="K152" s="12">
+        <v>0</v>
+      </c>
+      <c r="L152" s="14">
+        <v>0</v>
+      </c>
+      <c r="M152" s="14">
+        <v>0</v>
+      </c>
+      <c r="N152" s="14">
+        <v>0</v>
+      </c>
+      <c r="O152" s="14">
+        <v>0</v>
+      </c>
+      <c r="P152" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="R152" s="12">
+        <v>0</v>
+      </c>
+      <c r="S152" s="12">
+        <v>0</v>
+      </c>
+      <c r="T152" s="12">
+        <v>0</v>
+      </c>
+      <c r="U152" s="12">
+        <v>0</v>
+      </c>
+      <c r="V152" s="12">
+        <v>0</v>
+      </c>
+      <c r="W152" s="12">
+        <v>0</v>
+      </c>
+      <c r="X152" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C153" s="12">
+        <v>300231</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F153" s="14">
+        <v>0</v>
+      </c>
+      <c r="G153" s="12">
+        <v>0</v>
+      </c>
+      <c r="H153" s="12">
+        <v>0</v>
+      </c>
+      <c r="I153" s="12">
+        <v>0</v>
+      </c>
+      <c r="J153" s="12">
+        <v>0</v>
+      </c>
+      <c r="K153" s="12">
+        <v>0</v>
+      </c>
+      <c r="L153" s="14">
+        <v>0</v>
+      </c>
+      <c r="M153" s="14">
+        <v>0</v>
+      </c>
+      <c r="N153" s="14">
+        <v>0</v>
+      </c>
+      <c r="O153" s="14">
+        <v>0</v>
+      </c>
+      <c r="P153" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="12">
+        <v>0</v>
+      </c>
+      <c r="R153" s="12">
+        <v>0</v>
+      </c>
+      <c r="S153" s="12">
+        <v>0</v>
+      </c>
+      <c r="T153" s="12">
+        <v>0</v>
+      </c>
+      <c r="U153" s="12">
+        <v>0</v>
+      </c>
+      <c r="V153" s="12">
+        <v>0</v>
+      </c>
+      <c r="W153" s="12">
+        <v>0</v>
+      </c>
+      <c r="X153" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C154" s="12">
+        <v>300232</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F154" s="14">
+        <v>0</v>
+      </c>
+      <c r="G154" s="12">
+        <v>0</v>
+      </c>
+      <c r="H154" s="12">
+        <v>0</v>
+      </c>
+      <c r="I154" s="12">
+        <v>0</v>
+      </c>
+      <c r="J154" s="12">
+        <v>0</v>
+      </c>
+      <c r="K154" s="12">
+        <v>0</v>
+      </c>
+      <c r="L154" s="14">
+        <v>0</v>
+      </c>
+      <c r="M154" s="14">
+        <v>0</v>
+      </c>
+      <c r="N154" s="14">
+        <v>0</v>
+      </c>
+      <c r="O154" s="14">
+        <v>0</v>
+      </c>
+      <c r="P154" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="12">
+        <v>0</v>
+      </c>
+      <c r="R154" s="12">
+        <v>0</v>
+      </c>
+      <c r="S154" s="12">
+        <v>0</v>
+      </c>
+      <c r="T154" s="12">
+        <v>0</v>
+      </c>
+      <c r="U154" s="12">
+        <v>0</v>
+      </c>
+      <c r="V154" s="12">
+        <v>0</v>
+      </c>
+      <c r="W154" s="12">
+        <v>0</v>
+      </c>
+      <c r="X154" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="155" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C155" s="12">
+        <v>300233</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E155" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="F146" s="14">
-        <v>0</v>
-      </c>
-      <c r="G146" s="12">
-        <v>0</v>
-      </c>
-      <c r="H146" s="12">
-        <v>0</v>
-      </c>
-      <c r="I146" s="12">
-        <v>0</v>
-      </c>
-      <c r="J146" s="12">
-        <v>0</v>
-      </c>
-      <c r="K146" s="12">
-        <v>0</v>
-      </c>
-      <c r="L146" s="14">
-        <v>0</v>
-      </c>
-      <c r="M146" s="14">
-        <v>0</v>
-      </c>
-      <c r="N146" s="14">
-        <v>0</v>
-      </c>
-      <c r="O146" s="14">
-        <v>0</v>
-      </c>
-      <c r="P146" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q146" s="12">
-        <v>0</v>
-      </c>
-      <c r="R146" s="12">
+      <c r="F155" s="14">
+        <v>0</v>
+      </c>
+      <c r="G155" s="12">
+        <v>0</v>
+      </c>
+      <c r="H155" s="12">
+        <v>0</v>
+      </c>
+      <c r="I155" s="12">
+        <v>0</v>
+      </c>
+      <c r="J155" s="12">
+        <v>0</v>
+      </c>
+      <c r="K155" s="12">
+        <v>0</v>
+      </c>
+      <c r="L155" s="14">
+        <v>0</v>
+      </c>
+      <c r="M155" s="14">
+        <v>0</v>
+      </c>
+      <c r="N155" s="14">
+        <v>0</v>
+      </c>
+      <c r="O155" s="14">
+        <v>0</v>
+      </c>
+      <c r="P155" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="12">
+        <v>0</v>
+      </c>
+      <c r="R155" s="12">
         <v>0.02</v>
       </c>
-      <c r="S146" s="12">
-        <v>0</v>
-      </c>
-      <c r="T146" s="12">
-        <v>0</v>
-      </c>
-      <c r="U146" s="12">
-        <v>0</v>
-      </c>
-      <c r="V146" s="12">
-        <v>0</v>
-      </c>
-      <c r="W146" s="12">
-        <v>0</v>
-      </c>
-      <c r="X146" s="12">
+      <c r="S155" s="12">
+        <v>0</v>
+      </c>
+      <c r="T155" s="12">
+        <v>0</v>
+      </c>
+      <c r="U155" s="12">
+        <v>0</v>
+      </c>
+      <c r="V155" s="12">
+        <v>0</v>
+      </c>
+      <c r="W155" s="12">
+        <v>0</v>
+      </c>
+      <c r="X155" s="12">
         <v>0</v>
       </c>
     </row>

--- a/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Excel/EquipSuitPropertyConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E7F560-68C9-42FC-BDF8-DC9826888B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66E5679-827D-4DF1-A7CA-54233A86A2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitPropertyProto" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="231">
   <si>
     <t>Id</t>
   </si>
@@ -782,6 +782,22 @@
   </si>
   <si>
     <t>100202,0.02</t>
+  </si>
+  <si>
+    <t>真实伤害提高300点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽视目标防御值400点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>118101,400</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>110301,300</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1398,10 +1414,10 @@
   <dimension ref="C1:AH155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="P116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="U108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D125" sqref="D125"/>
+      <selection pane="bottomRight" activeCell="X119" sqref="X119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11124,7 +11140,7 @@
         <v>131</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="F119" s="14">
         <v>0</v>
@@ -11181,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="X119" s="20" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11532,7 +11548,7 @@
         <v>131</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="F125" s="14">
         <v>0</v>
@@ -11589,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="X125" s="20" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Excel/EquipSuitPropertyConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66E5679-827D-4DF1-A7CA-54233A86A2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17E0EAB-524B-439E-9283-BDE666E42084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1414,10 +1414,10 @@
   <dimension ref="C1:AH155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="U108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="S111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X119" sqref="X119"/>
+      <selection pane="bottomRight" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Excel/EquipSuitPropertyConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17E0EAB-524B-439E-9283-BDE666E42084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F604C0E-A4F7-4BEA-BED0-611A1F410C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitPropertyProto" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="241">
   <si>
     <t>Id</t>
   </si>
@@ -797,6 +797,45 @@
   </si>
   <si>
     <t>110301,300</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷+20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>体制+20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力+20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+20</t>
+  </si>
+  <si>
+    <t>105103,20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>105203,20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>105503,20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>105403,20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>200403,0.02</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1411,13 +1450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AH155"/>
+  <dimension ref="C1:AH180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="S111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="V149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E123" sqref="E123"/>
+      <selection pane="bottomRight" activeCell="W156" sqref="W156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13648,6 +13687,634 @@
         <v>0</v>
       </c>
     </row>
+    <row r="156" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C156" s="12">
+        <v>300311</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F156" s="14">
+        <v>0</v>
+      </c>
+      <c r="G156" s="12">
+        <v>0</v>
+      </c>
+      <c r="H156" s="12">
+        <v>0</v>
+      </c>
+      <c r="I156" s="12">
+        <v>0</v>
+      </c>
+      <c r="J156" s="12">
+        <v>0</v>
+      </c>
+      <c r="K156" s="12">
+        <v>0</v>
+      </c>
+      <c r="L156" s="14">
+        <v>0</v>
+      </c>
+      <c r="M156" s="14">
+        <v>0</v>
+      </c>
+      <c r="N156" s="14">
+        <v>0</v>
+      </c>
+      <c r="O156" s="14">
+        <v>0</v>
+      </c>
+      <c r="P156" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="12">
+        <v>0</v>
+      </c>
+      <c r="R156" s="12">
+        <v>0</v>
+      </c>
+      <c r="S156" s="12">
+        <v>0</v>
+      </c>
+      <c r="T156" s="12">
+        <v>0</v>
+      </c>
+      <c r="U156" s="12">
+        <v>0</v>
+      </c>
+      <c r="V156" s="12">
+        <v>0</v>
+      </c>
+      <c r="W156" s="12">
+        <v>0</v>
+      </c>
+      <c r="X156" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="157" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C157" s="12">
+        <v>300312</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F157" s="14">
+        <v>0</v>
+      </c>
+      <c r="G157" s="12">
+        <v>0</v>
+      </c>
+      <c r="H157" s="12">
+        <v>0</v>
+      </c>
+      <c r="I157" s="12">
+        <v>0</v>
+      </c>
+      <c r="J157" s="12">
+        <v>0</v>
+      </c>
+      <c r="K157" s="12">
+        <v>0</v>
+      </c>
+      <c r="L157" s="14">
+        <v>0</v>
+      </c>
+      <c r="M157" s="14">
+        <v>0</v>
+      </c>
+      <c r="N157" s="14">
+        <v>0</v>
+      </c>
+      <c r="O157" s="14">
+        <v>0</v>
+      </c>
+      <c r="P157" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="12">
+        <v>0</v>
+      </c>
+      <c r="R157" s="12">
+        <v>0</v>
+      </c>
+      <c r="S157" s="12">
+        <v>0</v>
+      </c>
+      <c r="T157" s="12">
+        <v>0</v>
+      </c>
+      <c r="U157" s="12">
+        <v>0</v>
+      </c>
+      <c r="V157" s="12">
+        <v>0</v>
+      </c>
+      <c r="W157" s="12">
+        <v>0</v>
+      </c>
+      <c r="X157" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="158" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C158" s="12">
+        <v>300313</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F158" s="14">
+        <v>0</v>
+      </c>
+      <c r="G158" s="12">
+        <v>0</v>
+      </c>
+      <c r="H158" s="12">
+        <v>0</v>
+      </c>
+      <c r="I158" s="12">
+        <v>0</v>
+      </c>
+      <c r="J158" s="12">
+        <v>0</v>
+      </c>
+      <c r="K158" s="12">
+        <v>0</v>
+      </c>
+      <c r="L158" s="14">
+        <v>0</v>
+      </c>
+      <c r="M158" s="14">
+        <v>0</v>
+      </c>
+      <c r="N158" s="14">
+        <v>0</v>
+      </c>
+      <c r="O158" s="14">
+        <v>0</v>
+      </c>
+      <c r="P158" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="12">
+        <v>0</v>
+      </c>
+      <c r="R158" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S158" s="12">
+        <v>0</v>
+      </c>
+      <c r="T158" s="12">
+        <v>0</v>
+      </c>
+      <c r="U158" s="12">
+        <v>0</v>
+      </c>
+      <c r="V158" s="12">
+        <v>0</v>
+      </c>
+      <c r="W158" s="12">
+        <v>0</v>
+      </c>
+      <c r="X158" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C159" s="12">
+        <v>300321</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F159" s="14">
+        <v>0</v>
+      </c>
+      <c r="G159" s="12">
+        <v>0</v>
+      </c>
+      <c r="H159" s="12">
+        <v>0</v>
+      </c>
+      <c r="I159" s="12">
+        <v>0</v>
+      </c>
+      <c r="J159" s="12">
+        <v>0</v>
+      </c>
+      <c r="K159" s="12">
+        <v>0</v>
+      </c>
+      <c r="L159" s="14">
+        <v>0</v>
+      </c>
+      <c r="M159" s="14">
+        <v>0</v>
+      </c>
+      <c r="N159" s="14">
+        <v>0</v>
+      </c>
+      <c r="O159" s="14">
+        <v>0</v>
+      </c>
+      <c r="P159" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="12">
+        <v>0</v>
+      </c>
+      <c r="R159" s="12">
+        <v>0</v>
+      </c>
+      <c r="S159" s="12">
+        <v>0</v>
+      </c>
+      <c r="T159" s="12">
+        <v>0</v>
+      </c>
+      <c r="U159" s="12">
+        <v>0</v>
+      </c>
+      <c r="V159" s="12">
+        <v>0</v>
+      </c>
+      <c r="W159" s="12">
+        <v>0</v>
+      </c>
+      <c r="X159" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="160" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C160" s="12">
+        <v>300322</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F160" s="14">
+        <v>0</v>
+      </c>
+      <c r="G160" s="12">
+        <v>0</v>
+      </c>
+      <c r="H160" s="12">
+        <v>0</v>
+      </c>
+      <c r="I160" s="12">
+        <v>0</v>
+      </c>
+      <c r="J160" s="12">
+        <v>0</v>
+      </c>
+      <c r="K160" s="12">
+        <v>0</v>
+      </c>
+      <c r="L160" s="14">
+        <v>0</v>
+      </c>
+      <c r="M160" s="14">
+        <v>0</v>
+      </c>
+      <c r="N160" s="14">
+        <v>0</v>
+      </c>
+      <c r="O160" s="14">
+        <v>0</v>
+      </c>
+      <c r="P160" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="12">
+        <v>0</v>
+      </c>
+      <c r="R160" s="12">
+        <v>0</v>
+      </c>
+      <c r="S160" s="12">
+        <v>0</v>
+      </c>
+      <c r="T160" s="12">
+        <v>0</v>
+      </c>
+      <c r="U160" s="12">
+        <v>0</v>
+      </c>
+      <c r="V160" s="12">
+        <v>0</v>
+      </c>
+      <c r="W160" s="12">
+        <v>0</v>
+      </c>
+      <c r="X160" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="161" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C161" s="12">
+        <v>300323</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F161" s="14">
+        <v>0</v>
+      </c>
+      <c r="G161" s="12">
+        <v>0</v>
+      </c>
+      <c r="H161" s="12">
+        <v>0</v>
+      </c>
+      <c r="I161" s="12">
+        <v>0</v>
+      </c>
+      <c r="J161" s="12">
+        <v>0</v>
+      </c>
+      <c r="K161" s="12">
+        <v>0</v>
+      </c>
+      <c r="L161" s="14">
+        <v>0</v>
+      </c>
+      <c r="M161" s="14">
+        <v>0</v>
+      </c>
+      <c r="N161" s="14">
+        <v>0</v>
+      </c>
+      <c r="O161" s="14">
+        <v>0</v>
+      </c>
+      <c r="P161" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="12">
+        <v>0</v>
+      </c>
+      <c r="R161" s="12">
+        <v>0</v>
+      </c>
+      <c r="S161" s="12">
+        <v>0</v>
+      </c>
+      <c r="T161" s="12">
+        <v>0</v>
+      </c>
+      <c r="U161" s="12">
+        <v>0</v>
+      </c>
+      <c r="V161" s="12">
+        <v>0</v>
+      </c>
+      <c r="W161" s="12">
+        <v>0</v>
+      </c>
+      <c r="X161" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C162" s="12">
+        <v>300331</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F162" s="14">
+        <v>0</v>
+      </c>
+      <c r="G162" s="12">
+        <v>0</v>
+      </c>
+      <c r="H162" s="12">
+        <v>0</v>
+      </c>
+      <c r="I162" s="12">
+        <v>0</v>
+      </c>
+      <c r="J162" s="12">
+        <v>0</v>
+      </c>
+      <c r="K162" s="12">
+        <v>0</v>
+      </c>
+      <c r="L162" s="14">
+        <v>0</v>
+      </c>
+      <c r="M162" s="14">
+        <v>0</v>
+      </c>
+      <c r="N162" s="14">
+        <v>0</v>
+      </c>
+      <c r="O162" s="14">
+        <v>0</v>
+      </c>
+      <c r="P162" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="12">
+        <v>0</v>
+      </c>
+      <c r="R162" s="12">
+        <v>0</v>
+      </c>
+      <c r="S162" s="12">
+        <v>0</v>
+      </c>
+      <c r="T162" s="12">
+        <v>0</v>
+      </c>
+      <c r="U162" s="12">
+        <v>0</v>
+      </c>
+      <c r="V162" s="12">
+        <v>0</v>
+      </c>
+      <c r="W162" s="12">
+        <v>0</v>
+      </c>
+      <c r="X162" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="163" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C163" s="12">
+        <v>300332</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F163" s="14">
+        <v>0</v>
+      </c>
+      <c r="G163" s="12">
+        <v>0</v>
+      </c>
+      <c r="H163" s="12">
+        <v>0</v>
+      </c>
+      <c r="I163" s="12">
+        <v>0</v>
+      </c>
+      <c r="J163" s="12">
+        <v>0</v>
+      </c>
+      <c r="K163" s="12">
+        <v>0</v>
+      </c>
+      <c r="L163" s="14">
+        <v>0</v>
+      </c>
+      <c r="M163" s="14">
+        <v>0</v>
+      </c>
+      <c r="N163" s="14">
+        <v>0</v>
+      </c>
+      <c r="O163" s="14">
+        <v>0</v>
+      </c>
+      <c r="P163" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="12">
+        <v>0</v>
+      </c>
+      <c r="R163" s="12">
+        <v>0</v>
+      </c>
+      <c r="S163" s="12">
+        <v>0</v>
+      </c>
+      <c r="T163" s="12">
+        <v>0</v>
+      </c>
+      <c r="U163" s="12">
+        <v>0</v>
+      </c>
+      <c r="V163" s="12">
+        <v>0</v>
+      </c>
+      <c r="W163" s="12">
+        <v>0</v>
+      </c>
+      <c r="X163" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C164" s="12">
+        <v>300333</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F164" s="14">
+        <v>0</v>
+      </c>
+      <c r="G164" s="12">
+        <v>0</v>
+      </c>
+      <c r="H164" s="12">
+        <v>0</v>
+      </c>
+      <c r="I164" s="12">
+        <v>0</v>
+      </c>
+      <c r="J164" s="12">
+        <v>0</v>
+      </c>
+      <c r="K164" s="12">
+        <v>0</v>
+      </c>
+      <c r="L164" s="14">
+        <v>0</v>
+      </c>
+      <c r="M164" s="14">
+        <v>0</v>
+      </c>
+      <c r="N164" s="14">
+        <v>0</v>
+      </c>
+      <c r="O164" s="14">
+        <v>0</v>
+      </c>
+      <c r="P164" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="12">
+        <v>0</v>
+      </c>
+      <c r="R164" s="12">
+        <v>0</v>
+      </c>
+      <c r="S164" s="12">
+        <v>0</v>
+      </c>
+      <c r="T164" s="12">
+        <v>0</v>
+      </c>
+      <c r="U164" s="12">
+        <v>0</v>
+      </c>
+      <c r="V164" s="12">
+        <v>0</v>
+      </c>
+      <c r="W164" s="12">
+        <v>0</v>
+      </c>
+      <c r="X164" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Excel/EquipSuitPropertyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F604C0E-A4F7-4BEA-BED0-611A1F410C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D66A9F-F6BB-4F18-ADF4-15CCFA98353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitPropertyProto" sheetId="1" r:id="rId1"/>
@@ -808,10 +808,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>体制+20</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>耐力+20</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -836,6 +832,10 @@
   </si>
   <si>
     <t>200403,0.02</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质+20</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1456,7 +1456,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="V149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W156" sqref="W156"/>
+      <selection pane="bottomRight" activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="X156" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="X157" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13899,7 +13899,7 @@
         <v>184</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F159" s="14">
         <v>0</v>
@@ -13956,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="X159" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13967,7 +13967,7 @@
         <v>184</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F160" s="14">
         <v>0</v>
@@ -14024,7 +14024,7 @@
         <v>0</v>
       </c>
       <c r="X160" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14103,7 +14103,7 @@
         <v>184</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F162" s="14">
         <v>0</v>
@@ -14160,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="X162" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="163" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14228,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="X163" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="164" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Excel/EquipSuitPropertyConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D66A9F-F6BB-4F18-ADF4-15CCFA98353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC21E8D-C121-4E3C-9649-7B84C03FD63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitPropertyProto" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="242">
   <si>
     <t>Id</t>
   </si>
@@ -836,6 +836,10 @@
   </si>
   <si>
     <t>体质+20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>105303,20</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1453,10 +1457,10 @@
   <dimension ref="C1:AH180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="V149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="V155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E160" sqref="E160"/>
+      <selection pane="bottomRight" activeCell="Y170" sqref="Y170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14160,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="X162" s="12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Excel/EquipSuitPropertyConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC21E8D-C121-4E3C-9649-7B84C03FD63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71C77A3-4134-4FC6-86C0-5D9D2B697E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitPropertyProto" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="242">
   <si>
     <t>Id</t>
   </si>
@@ -1454,13 +1454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AH180"/>
+  <dimension ref="C1:AH189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="V155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="V122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y170" sqref="Y170"/>
+      <selection pane="bottomRight" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11788,116 +11788,116 @@
       </c>
     </row>
     <row r="128" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="12">
-        <v>200001</v>
+      <c r="C128" s="17">
+        <v>180111</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="E128" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F128" s="14">
+        <v>0</v>
+      </c>
+      <c r="G128" s="12">
+        <v>0</v>
+      </c>
+      <c r="H128" s="12">
+        <v>0</v>
+      </c>
+      <c r="I128" s="12">
+        <v>0</v>
+      </c>
+      <c r="J128" s="12">
+        <v>0</v>
+      </c>
+      <c r="K128" s="12">
+        <v>0</v>
+      </c>
+      <c r="L128" s="14">
+        <v>0</v>
+      </c>
+      <c r="M128" s="14">
+        <v>0</v>
+      </c>
+      <c r="N128" s="14">
+        <v>0</v>
+      </c>
+      <c r="O128" s="14">
+        <v>0</v>
+      </c>
+      <c r="P128" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="12">
+        <v>0</v>
+      </c>
+      <c r="R128" s="12">
+        <v>0</v>
+      </c>
+      <c r="S128" s="12">
+        <v>0</v>
+      </c>
+      <c r="T128" s="12">
+        <v>0</v>
+      </c>
+      <c r="U128" s="12">
+        <v>0</v>
+      </c>
+      <c r="V128" s="12">
+        <v>0</v>
+      </c>
+      <c r="W128" s="12">
+        <v>0</v>
+      </c>
+      <c r="X128" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="17">
+        <v>180112</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E129" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F128" s="14">
-        <v>0</v>
-      </c>
-      <c r="G128" s="12">
-        <v>0</v>
-      </c>
-      <c r="H128" s="12">
-        <v>0</v>
-      </c>
-      <c r="I128" s="12">
-        <v>0</v>
-      </c>
-      <c r="J128" s="12">
-        <v>0</v>
-      </c>
-      <c r="K128" s="12">
-        <v>0</v>
-      </c>
-      <c r="L128" s="14">
-        <v>0</v>
-      </c>
-      <c r="M128" s="14">
-        <v>0</v>
-      </c>
-      <c r="N128" s="14">
-        <v>0</v>
-      </c>
-      <c r="O128" s="14">
-        <v>0</v>
-      </c>
-      <c r="P128" s="12">
+      <c r="F129" s="14">
+        <v>0</v>
+      </c>
+      <c r="G129" s="12">
+        <v>0</v>
+      </c>
+      <c r="H129" s="12">
+        <v>0</v>
+      </c>
+      <c r="I129" s="12">
+        <v>0</v>
+      </c>
+      <c r="J129" s="12">
+        <v>0</v>
+      </c>
+      <c r="K129" s="12">
+        <v>0</v>
+      </c>
+      <c r="L129" s="14">
+        <v>0</v>
+      </c>
+      <c r="M129" s="14">
+        <v>0</v>
+      </c>
+      <c r="N129" s="14">
+        <v>0</v>
+      </c>
+      <c r="O129" s="14">
+        <v>0</v>
+      </c>
+      <c r="P129" s="12">
         <v>0.05</v>
       </c>
-      <c r="Q128" s="12">
-        <v>0</v>
-      </c>
-      <c r="R128" s="12">
-        <v>0</v>
-      </c>
-      <c r="S128" s="12">
-        <v>0</v>
-      </c>
-      <c r="T128" s="12">
-        <v>0</v>
-      </c>
-      <c r="U128" s="12">
-        <v>0</v>
-      </c>
-      <c r="V128" s="12">
-        <v>0</v>
-      </c>
-      <c r="W128" s="12">
-        <v>0</v>
-      </c>
-      <c r="X128" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="12">
-        <v>300011</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F129" s="14">
-        <v>0</v>
-      </c>
-      <c r="G129" s="12">
-        <v>0</v>
-      </c>
-      <c r="H129" s="12">
-        <v>0</v>
-      </c>
-      <c r="I129" s="12">
-        <v>0</v>
-      </c>
-      <c r="J129" s="12">
-        <v>0</v>
-      </c>
-      <c r="K129" s="12">
-        <v>0</v>
-      </c>
-      <c r="L129" s="14">
-        <v>0</v>
-      </c>
-      <c r="M129" s="14">
-        <v>0</v>
-      </c>
-      <c r="N129" s="14">
-        <v>0</v>
-      </c>
-      <c r="O129" s="14">
-        <v>0</v>
-      </c>
-      <c r="P129" s="12">
-        <v>0</v>
-      </c>
       <c r="Q129" s="12">
         <v>0</v>
       </c>
@@ -11919,19 +11919,19 @@
       <c r="W129" s="12">
         <v>0</v>
       </c>
-      <c r="X129" s="12" t="s">
-        <v>196</v>
+      <c r="X129" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="12">
-        <v>300012</v>
-      </c>
-      <c r="D130" s="21" t="s">
-        <v>184</v>
+      <c r="C130" s="17">
+        <v>180113</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F130" s="14">
         <v>0</v>
@@ -11988,18 +11988,18 @@
         <v>0</v>
       </c>
       <c r="X130" s="12" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="12">
-        <v>300013</v>
-      </c>
-      <c r="D131" s="21" t="s">
-        <v>184</v>
+      <c r="C131" s="17">
+        <v>180121</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F131" s="14">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="P131" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q131" s="12">
         <v>0</v>
@@ -12055,19 +12055,19 @@
       <c r="W131" s="12">
         <v>0</v>
       </c>
-      <c r="X131" s="12">
-        <v>0</v>
+      <c r="X131" s="20" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="12">
-        <v>300021</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>184</v>
+      <c r="C132" s="17">
+        <v>180122</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="F132" s="14">
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="P132" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q132" s="12">
         <v>0</v>
@@ -12123,19 +12123,19 @@
       <c r="W132" s="12">
         <v>0</v>
       </c>
-      <c r="X132" s="12" t="s">
-        <v>195</v>
+      <c r="X132" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="12">
-        <v>300022</v>
-      </c>
-      <c r="D133" s="21" t="s">
-        <v>184</v>
+      <c r="C133" s="17">
+        <v>180123</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="F133" s="14">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
       <c r="S133" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T133" s="12">
         <v>0</v>
@@ -12191,19 +12191,19 @@
       <c r="W133" s="12">
         <v>0</v>
       </c>
-      <c r="X133" s="12" t="s">
-        <v>194</v>
+      <c r="X133" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="12">
-        <v>300023</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>184</v>
+      <c r="C134" s="17">
+        <v>180131</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="F134" s="14">
         <v>0</v>
@@ -12239,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="Q134" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R134" s="12">
         <v>0</v>
@@ -12259,19 +12259,19 @@
       <c r="W134" s="12">
         <v>0</v>
       </c>
-      <c r="X134" s="12">
-        <v>0</v>
+      <c r="X134" s="20" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="12">
-        <v>300031</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>184</v>
+      <c r="C135" s="17">
+        <v>180132</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F135" s="14">
         <v>0</v>
@@ -12310,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="R135" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S135" s="12">
         <v>0</v>
@@ -12332,14 +12332,14 @@
       </c>
     </row>
     <row r="136" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="12">
-        <v>300032</v>
-      </c>
-      <c r="D136" s="21" t="s">
-        <v>184</v>
+      <c r="C136" s="17">
+        <v>180133</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F136" s="14">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="12">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J136" s="12">
         <v>0</v>
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="Q136" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R136" s="12">
         <v>0</v>
@@ -12396,18 +12396,18 @@
         <v>0</v>
       </c>
       <c r="X136" s="12" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="12">
-        <v>300033</v>
-      </c>
-      <c r="D137" s="21" t="s">
-        <v>184</v>
+        <v>200001</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="F137" s="14">
         <v>0</v>
@@ -12440,13 +12440,13 @@
         <v>0</v>
       </c>
       <c r="P137" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q137" s="12">
         <v>0</v>
       </c>
       <c r="R137" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S137" s="12">
         <v>0</v>
@@ -12469,13 +12469,13 @@
     </row>
     <row r="138" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="12">
-        <v>300111</v>
+        <v>300011</v>
       </c>
       <c r="D138" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F138" s="14">
         <v>0</v>
@@ -12532,18 +12532,18 @@
         <v>0</v>
       </c>
       <c r="X138" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="12">
-        <v>300112</v>
+        <v>300012</v>
       </c>
       <c r="D139" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F139" s="14">
         <v>0</v>
@@ -12600,18 +12600,18 @@
         <v>0</v>
       </c>
       <c r="X139" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="12">
-        <v>300113</v>
+        <v>300013</v>
       </c>
       <c r="D140" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F140" s="14">
         <v>0</v>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="12">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q140" s="12">
         <v>0</v>
@@ -12673,13 +12673,13 @@
     </row>
     <row r="141" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="12">
-        <v>300121</v>
+        <v>300021</v>
       </c>
       <c r="D141" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F141" s="14">
         <v>0</v>
@@ -12736,18 +12736,18 @@
         <v>0</v>
       </c>
       <c r="X141" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="12">
-        <v>300122</v>
+        <v>300022</v>
       </c>
       <c r="D142" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F142" s="14">
         <v>0</v>
@@ -12804,18 +12804,18 @@
         <v>0</v>
       </c>
       <c r="X142" s="12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="12">
-        <v>300123</v>
+        <v>300023</v>
       </c>
       <c r="D143" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="F143" s="14">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="Q143" s="12">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="R143" s="12">
         <v>0</v>
@@ -12877,13 +12877,13 @@
     </row>
     <row r="144" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C144" s="12">
-        <v>300131</v>
+        <v>300031</v>
       </c>
       <c r="D144" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F144" s="14">
         <v>0</v>
@@ -12945,13 +12945,13 @@
     </row>
     <row r="145" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="12">
-        <v>300132</v>
+        <v>300032</v>
       </c>
       <c r="D145" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="F145" s="14">
         <v>0</v>
@@ -13008,18 +13008,18 @@
         <v>0</v>
       </c>
       <c r="X145" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="12">
-        <v>300133</v>
+        <v>300033</v>
       </c>
       <c r="D146" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F146" s="14">
         <v>0</v>
@@ -13058,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="R146" s="12">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="S146" s="12">
         <v>0</v>
@@ -13081,13 +13081,13 @@
     </row>
     <row r="147" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="12">
-        <v>300211</v>
+        <v>300111</v>
       </c>
       <c r="D147" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F147" s="14">
         <v>0</v>
@@ -13144,18 +13144,18 @@
         <v>0</v>
       </c>
       <c r="X147" s="12" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="12">
-        <v>300212</v>
+        <v>300112</v>
       </c>
       <c r="D148" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F148" s="14">
         <v>0</v>
@@ -13212,18 +13212,18 @@
         <v>0</v>
       </c>
       <c r="X148" s="12" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="12">
-        <v>300213</v>
+        <v>300113</v>
       </c>
       <c r="D149" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F149" s="14">
         <v>0</v>
@@ -13256,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="12">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q149" s="12">
         <v>0</v>
@@ -13285,13 +13285,13 @@
     </row>
     <row r="150" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="12">
-        <v>300221</v>
+        <v>300121</v>
       </c>
       <c r="D150" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F150" s="14">
         <v>0</v>
@@ -13348,18 +13348,18 @@
         <v>0</v>
       </c>
       <c r="X150" s="12" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C151" s="12">
-        <v>300222</v>
+        <v>300122</v>
       </c>
       <c r="D151" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F151" s="14">
         <v>0</v>
@@ -13416,18 +13416,18 @@
         <v>0</v>
       </c>
       <c r="X151" s="12" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C152" s="12">
-        <v>300223</v>
+        <v>300123</v>
       </c>
       <c r="D152" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F152" s="14">
         <v>0</v>
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="Q152" s="12">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R152" s="12">
         <v>0</v>
@@ -13489,13 +13489,13 @@
     </row>
     <row r="153" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C153" s="12">
-        <v>300231</v>
+        <v>300131</v>
       </c>
       <c r="D153" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E153" s="13" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F153" s="14">
         <v>0</v>
@@ -13557,13 +13557,13 @@
     </row>
     <row r="154" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="12">
-        <v>300232</v>
+        <v>300132</v>
       </c>
       <c r="D154" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F154" s="14">
         <v>0</v>
@@ -13620,18 +13620,18 @@
         <v>0</v>
       </c>
       <c r="X154" s="12" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="155" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="12">
-        <v>300233</v>
+        <v>300133</v>
       </c>
       <c r="D155" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F155" s="14">
         <v>0</v>
@@ -13670,7 +13670,7 @@
         <v>0</v>
       </c>
       <c r="R155" s="12">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="S155" s="12">
         <v>0</v>
@@ -13693,13 +13693,13 @@
     </row>
     <row r="156" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C156" s="12">
-        <v>300311</v>
+        <v>300211</v>
       </c>
       <c r="D156" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="F156" s="14">
         <v>0</v>
@@ -13756,18 +13756,18 @@
         <v>0</v>
       </c>
       <c r="X156" s="12" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C157" s="12">
-        <v>300312</v>
+        <v>300212</v>
       </c>
       <c r="D157" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="F157" s="14">
         <v>0</v>
@@ -13824,18 +13824,18 @@
         <v>0</v>
       </c>
       <c r="X157" s="12" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="158" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C158" s="12">
-        <v>300313</v>
+        <v>300213</v>
       </c>
       <c r="D158" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F158" s="14">
         <v>0</v>
@@ -13868,13 +13868,13 @@
         <v>0</v>
       </c>
       <c r="P158" s="12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q158" s="12">
         <v>0</v>
       </c>
       <c r="R158" s="12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S158" s="12">
         <v>0</v>
@@ -13897,13 +13897,13 @@
     </row>
     <row r="159" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C159" s="12">
-        <v>300321</v>
+        <v>300221</v>
       </c>
       <c r="D159" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="F159" s="14">
         <v>0</v>
@@ -13960,18 +13960,18 @@
         <v>0</v>
       </c>
       <c r="X159" s="12" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C160" s="12">
-        <v>300322</v>
+        <v>300222</v>
       </c>
       <c r="D160" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F160" s="14">
         <v>0</v>
@@ -14028,18 +14028,18 @@
         <v>0</v>
       </c>
       <c r="X160" s="12" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C161" s="12">
-        <v>300323</v>
+        <v>300223</v>
       </c>
       <c r="D161" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F161" s="14">
         <v>0</v>
@@ -14075,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="Q161" s="12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R161" s="12">
         <v>0</v>
@@ -14095,19 +14095,19 @@
       <c r="W161" s="12">
         <v>0</v>
       </c>
-      <c r="X161" s="12" t="s">
-        <v>226</v>
+      <c r="X161" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C162" s="12">
-        <v>300331</v>
+        <v>300231</v>
       </c>
       <c r="D162" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F162" s="14">
         <v>0</v>
@@ -14163,19 +14163,19 @@
       <c r="W162" s="12">
         <v>0</v>
       </c>
-      <c r="X162" s="12" t="s">
-        <v>241</v>
+      <c r="X162" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C163" s="12">
-        <v>300332</v>
+        <v>300232</v>
       </c>
       <c r="D163" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F163" s="14">
         <v>0</v>
@@ -14232,86 +14232,689 @@
         <v>0</v>
       </c>
       <c r="X163" s="12" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="164" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C164" s="12">
-        <v>300333</v>
+        <v>300233</v>
       </c>
       <c r="D164" s="21" t="s">
         <v>184</v>
       </c>
       <c r="E164" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F164" s="14">
+        <v>0</v>
+      </c>
+      <c r="G164" s="12">
+        <v>0</v>
+      </c>
+      <c r="H164" s="12">
+        <v>0</v>
+      </c>
+      <c r="I164" s="12">
+        <v>0</v>
+      </c>
+      <c r="J164" s="12">
+        <v>0</v>
+      </c>
+      <c r="K164" s="12">
+        <v>0</v>
+      </c>
+      <c r="L164" s="14">
+        <v>0</v>
+      </c>
+      <c r="M164" s="14">
+        <v>0</v>
+      </c>
+      <c r="N164" s="14">
+        <v>0</v>
+      </c>
+      <c r="O164" s="14">
+        <v>0</v>
+      </c>
+      <c r="P164" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="12">
+        <v>0</v>
+      </c>
+      <c r="R164" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S164" s="12">
+        <v>0</v>
+      </c>
+      <c r="T164" s="12">
+        <v>0</v>
+      </c>
+      <c r="U164" s="12">
+        <v>0</v>
+      </c>
+      <c r="V164" s="12">
+        <v>0</v>
+      </c>
+      <c r="W164" s="12">
+        <v>0</v>
+      </c>
+      <c r="X164" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C165" s="12">
+        <v>300311</v>
+      </c>
+      <c r="D165" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F165" s="14">
+        <v>0</v>
+      </c>
+      <c r="G165" s="12">
+        <v>0</v>
+      </c>
+      <c r="H165" s="12">
+        <v>0</v>
+      </c>
+      <c r="I165" s="12">
+        <v>0</v>
+      </c>
+      <c r="J165" s="12">
+        <v>0</v>
+      </c>
+      <c r="K165" s="12">
+        <v>0</v>
+      </c>
+      <c r="L165" s="14">
+        <v>0</v>
+      </c>
+      <c r="M165" s="14">
+        <v>0</v>
+      </c>
+      <c r="N165" s="14">
+        <v>0</v>
+      </c>
+      <c r="O165" s="14">
+        <v>0</v>
+      </c>
+      <c r="P165" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="12">
+        <v>0</v>
+      </c>
+      <c r="R165" s="12">
+        <v>0</v>
+      </c>
+      <c r="S165" s="12">
+        <v>0</v>
+      </c>
+      <c r="T165" s="12">
+        <v>0</v>
+      </c>
+      <c r="U165" s="12">
+        <v>0</v>
+      </c>
+      <c r="V165" s="12">
+        <v>0</v>
+      </c>
+      <c r="W165" s="12">
+        <v>0</v>
+      </c>
+      <c r="X165" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="166" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C166" s="12">
+        <v>300312</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F166" s="14">
+        <v>0</v>
+      </c>
+      <c r="G166" s="12">
+        <v>0</v>
+      </c>
+      <c r="H166" s="12">
+        <v>0</v>
+      </c>
+      <c r="I166" s="12">
+        <v>0</v>
+      </c>
+      <c r="J166" s="12">
+        <v>0</v>
+      </c>
+      <c r="K166" s="12">
+        <v>0</v>
+      </c>
+      <c r="L166" s="14">
+        <v>0</v>
+      </c>
+      <c r="M166" s="14">
+        <v>0</v>
+      </c>
+      <c r="N166" s="14">
+        <v>0</v>
+      </c>
+      <c r="O166" s="14">
+        <v>0</v>
+      </c>
+      <c r="P166" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="12">
+        <v>0</v>
+      </c>
+      <c r="R166" s="12">
+        <v>0</v>
+      </c>
+      <c r="S166" s="12">
+        <v>0</v>
+      </c>
+      <c r="T166" s="12">
+        <v>0</v>
+      </c>
+      <c r="U166" s="12">
+        <v>0</v>
+      </c>
+      <c r="V166" s="12">
+        <v>0</v>
+      </c>
+      <c r="W166" s="12">
+        <v>0</v>
+      </c>
+      <c r="X166" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C167" s="12">
+        <v>300313</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F167" s="14">
+        <v>0</v>
+      </c>
+      <c r="G167" s="12">
+        <v>0</v>
+      </c>
+      <c r="H167" s="12">
+        <v>0</v>
+      </c>
+      <c r="I167" s="12">
+        <v>0</v>
+      </c>
+      <c r="J167" s="12">
+        <v>0</v>
+      </c>
+      <c r="K167" s="12">
+        <v>0</v>
+      </c>
+      <c r="L167" s="14">
+        <v>0</v>
+      </c>
+      <c r="M167" s="14">
+        <v>0</v>
+      </c>
+      <c r="N167" s="14">
+        <v>0</v>
+      </c>
+      <c r="O167" s="14">
+        <v>0</v>
+      </c>
+      <c r="P167" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="12">
+        <v>0</v>
+      </c>
+      <c r="R167" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S167" s="12">
+        <v>0</v>
+      </c>
+      <c r="T167" s="12">
+        <v>0</v>
+      </c>
+      <c r="U167" s="12">
+        <v>0</v>
+      </c>
+      <c r="V167" s="12">
+        <v>0</v>
+      </c>
+      <c r="W167" s="12">
+        <v>0</v>
+      </c>
+      <c r="X167" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C168" s="12">
+        <v>300321</v>
+      </c>
+      <c r="D168" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F168" s="14">
+        <v>0</v>
+      </c>
+      <c r="G168" s="12">
+        <v>0</v>
+      </c>
+      <c r="H168" s="12">
+        <v>0</v>
+      </c>
+      <c r="I168" s="12">
+        <v>0</v>
+      </c>
+      <c r="J168" s="12">
+        <v>0</v>
+      </c>
+      <c r="K168" s="12">
+        <v>0</v>
+      </c>
+      <c r="L168" s="14">
+        <v>0</v>
+      </c>
+      <c r="M168" s="14">
+        <v>0</v>
+      </c>
+      <c r="N168" s="14">
+        <v>0</v>
+      </c>
+      <c r="O168" s="14">
+        <v>0</v>
+      </c>
+      <c r="P168" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="12">
+        <v>0</v>
+      </c>
+      <c r="R168" s="12">
+        <v>0</v>
+      </c>
+      <c r="S168" s="12">
+        <v>0</v>
+      </c>
+      <c r="T168" s="12">
+        <v>0</v>
+      </c>
+      <c r="U168" s="12">
+        <v>0</v>
+      </c>
+      <c r="V168" s="12">
+        <v>0</v>
+      </c>
+      <c r="W168" s="12">
+        <v>0</v>
+      </c>
+      <c r="X168" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C169" s="12">
+        <v>300322</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F169" s="14">
+        <v>0</v>
+      </c>
+      <c r="G169" s="12">
+        <v>0</v>
+      </c>
+      <c r="H169" s="12">
+        <v>0</v>
+      </c>
+      <c r="I169" s="12">
+        <v>0</v>
+      </c>
+      <c r="J169" s="12">
+        <v>0</v>
+      </c>
+      <c r="K169" s="12">
+        <v>0</v>
+      </c>
+      <c r="L169" s="14">
+        <v>0</v>
+      </c>
+      <c r="M169" s="14">
+        <v>0</v>
+      </c>
+      <c r="N169" s="14">
+        <v>0</v>
+      </c>
+      <c r="O169" s="14">
+        <v>0</v>
+      </c>
+      <c r="P169" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="12">
+        <v>0</v>
+      </c>
+      <c r="R169" s="12">
+        <v>0</v>
+      </c>
+      <c r="S169" s="12">
+        <v>0</v>
+      </c>
+      <c r="T169" s="12">
+        <v>0</v>
+      </c>
+      <c r="U169" s="12">
+        <v>0</v>
+      </c>
+      <c r="V169" s="12">
+        <v>0</v>
+      </c>
+      <c r="W169" s="12">
+        <v>0</v>
+      </c>
+      <c r="X169" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="170" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C170" s="12">
+        <v>300323</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E170" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F164" s="14">
-        <v>0</v>
-      </c>
-      <c r="G164" s="12">
-        <v>0</v>
-      </c>
-      <c r="H164" s="12">
-        <v>0</v>
-      </c>
-      <c r="I164" s="12">
-        <v>0</v>
-      </c>
-      <c r="J164" s="12">
-        <v>0</v>
-      </c>
-      <c r="K164" s="12">
-        <v>0</v>
-      </c>
-      <c r="L164" s="14">
-        <v>0</v>
-      </c>
-      <c r="M164" s="14">
-        <v>0</v>
-      </c>
-      <c r="N164" s="14">
-        <v>0</v>
-      </c>
-      <c r="O164" s="14">
-        <v>0</v>
-      </c>
-      <c r="P164" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="12">
-        <v>0</v>
-      </c>
-      <c r="R164" s="12">
-        <v>0</v>
-      </c>
-      <c r="S164" s="12">
-        <v>0</v>
-      </c>
-      <c r="T164" s="12">
-        <v>0</v>
-      </c>
-      <c r="U164" s="12">
-        <v>0</v>
-      </c>
-      <c r="V164" s="12">
-        <v>0</v>
-      </c>
-      <c r="W164" s="12">
-        <v>0</v>
-      </c>
-      <c r="X164" s="12" t="s">
+      <c r="F170" s="14">
+        <v>0</v>
+      </c>
+      <c r="G170" s="12">
+        <v>0</v>
+      </c>
+      <c r="H170" s="12">
+        <v>0</v>
+      </c>
+      <c r="I170" s="12">
+        <v>0</v>
+      </c>
+      <c r="J170" s="12">
+        <v>0</v>
+      </c>
+      <c r="K170" s="12">
+        <v>0</v>
+      </c>
+      <c r="L170" s="14">
+        <v>0</v>
+      </c>
+      <c r="M170" s="14">
+        <v>0</v>
+      </c>
+      <c r="N170" s="14">
+        <v>0</v>
+      </c>
+      <c r="O170" s="14">
+        <v>0</v>
+      </c>
+      <c r="P170" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="12">
+        <v>0</v>
+      </c>
+      <c r="R170" s="12">
+        <v>0</v>
+      </c>
+      <c r="S170" s="12">
+        <v>0</v>
+      </c>
+      <c r="T170" s="12">
+        <v>0</v>
+      </c>
+      <c r="U170" s="12">
+        <v>0</v>
+      </c>
+      <c r="V170" s="12">
+        <v>0</v>
+      </c>
+      <c r="W170" s="12">
+        <v>0</v>
+      </c>
+      <c r="X170" s="12" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="165" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C171" s="12">
+        <v>300331</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F171" s="14">
+        <v>0</v>
+      </c>
+      <c r="G171" s="12">
+        <v>0</v>
+      </c>
+      <c r="H171" s="12">
+        <v>0</v>
+      </c>
+      <c r="I171" s="12">
+        <v>0</v>
+      </c>
+      <c r="J171" s="12">
+        <v>0</v>
+      </c>
+      <c r="K171" s="12">
+        <v>0</v>
+      </c>
+      <c r="L171" s="14">
+        <v>0</v>
+      </c>
+      <c r="M171" s="14">
+        <v>0</v>
+      </c>
+      <c r="N171" s="14">
+        <v>0</v>
+      </c>
+      <c r="O171" s="14">
+        <v>0</v>
+      </c>
+      <c r="P171" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="12">
+        <v>0</v>
+      </c>
+      <c r="R171" s="12">
+        <v>0</v>
+      </c>
+      <c r="S171" s="12">
+        <v>0</v>
+      </c>
+      <c r="T171" s="12">
+        <v>0</v>
+      </c>
+      <c r="U171" s="12">
+        <v>0</v>
+      </c>
+      <c r="V171" s="12">
+        <v>0</v>
+      </c>
+      <c r="W171" s="12">
+        <v>0</v>
+      </c>
+      <c r="X171" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="172" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C172" s="12">
+        <v>300332</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F172" s="14">
+        <v>0</v>
+      </c>
+      <c r="G172" s="12">
+        <v>0</v>
+      </c>
+      <c r="H172" s="12">
+        <v>0</v>
+      </c>
+      <c r="I172" s="12">
+        <v>0</v>
+      </c>
+      <c r="J172" s="12">
+        <v>0</v>
+      </c>
+      <c r="K172" s="12">
+        <v>0</v>
+      </c>
+      <c r="L172" s="14">
+        <v>0</v>
+      </c>
+      <c r="M172" s="14">
+        <v>0</v>
+      </c>
+      <c r="N172" s="14">
+        <v>0</v>
+      </c>
+      <c r="O172" s="14">
+        <v>0</v>
+      </c>
+      <c r="P172" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="12">
+        <v>0</v>
+      </c>
+      <c r="R172" s="12">
+        <v>0</v>
+      </c>
+      <c r="S172" s="12">
+        <v>0</v>
+      </c>
+      <c r="T172" s="12">
+        <v>0</v>
+      </c>
+      <c r="U172" s="12">
+        <v>0</v>
+      </c>
+      <c r="V172" s="12">
+        <v>0</v>
+      </c>
+      <c r="W172" s="12">
+        <v>0</v>
+      </c>
+      <c r="X172" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="173" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C173" s="12">
+        <v>300333</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F173" s="14">
+        <v>0</v>
+      </c>
+      <c r="G173" s="12">
+        <v>0</v>
+      </c>
+      <c r="H173" s="12">
+        <v>0</v>
+      </c>
+      <c r="I173" s="12">
+        <v>0</v>
+      </c>
+      <c r="J173" s="12">
+        <v>0</v>
+      </c>
+      <c r="K173" s="12">
+        <v>0</v>
+      </c>
+      <c r="L173" s="14">
+        <v>0</v>
+      </c>
+      <c r="M173" s="14">
+        <v>0</v>
+      </c>
+      <c r="N173" s="14">
+        <v>0</v>
+      </c>
+      <c r="O173" s="14">
+        <v>0</v>
+      </c>
+      <c r="P173" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="12">
+        <v>0</v>
+      </c>
+      <c r="R173" s="12">
+        <v>0</v>
+      </c>
+      <c r="S173" s="12">
+        <v>0</v>
+      </c>
+      <c r="T173" s="12">
+        <v>0</v>
+      </c>
+      <c r="U173" s="12">
+        <v>0</v>
+      </c>
+      <c r="V173" s="12">
+        <v>0</v>
+      </c>
+      <c r="W173" s="12">
+        <v>0</v>
+      </c>
+      <c r="X173" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
     <row r="174" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="175" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="176" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14319,6 +14922,15 @@
     <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipSuitPropertyConfig.xlsx
+++ b/Excel/EquipSuitPropertyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71C77A3-4134-4FC6-86C0-5D9D2B697E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B686D32-4D57-4165-AD87-DE6E582D5E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitPropertyProto" sheetId="1" r:id="rId1"/>
@@ -509,9 +509,6 @@
     <t>闪避率提高3%</t>
   </si>
   <si>
-    <t>命中率提搞4%</t>
-  </si>
-  <si>
     <t>攻击提高75</t>
   </si>
   <si>
@@ -840,6 +837,10 @@
   </si>
   <si>
     <t>105303,20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率提高4%</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1457,10 +1458,10 @@
   <dimension ref="C1:AH189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="V122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E130" sqref="E130"/>
+      <selection pane="bottomRight" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8123,7 +8124,7 @@
         <v>131</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="F74" s="19">
         <v>0</v>
@@ -8191,7 +8192,7 @@
         <v>131</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F75" s="19">
         <v>0</v>
@@ -8259,7 +8260,7 @@
         <v>131</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F76" s="19">
         <v>0</v>
@@ -8327,7 +8328,7 @@
         <v>131</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F77" s="19">
         <v>0</v>
@@ -8395,7 +8396,7 @@
         <v>131</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F78" s="19">
         <v>0</v>
@@ -8463,64 +8464,64 @@
         <v>131</v>
       </c>
       <c r="E79" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" s="19">
+        <v>0</v>
+      </c>
+      <c r="G79" s="17">
+        <v>0</v>
+      </c>
+      <c r="H79" s="17">
+        <v>0</v>
+      </c>
+      <c r="I79" s="17">
+        <v>0</v>
+      </c>
+      <c r="J79" s="17">
+        <v>0</v>
+      </c>
+      <c r="K79" s="17">
+        <v>0</v>
+      </c>
+      <c r="L79" s="19">
+        <v>0</v>
+      </c>
+      <c r="M79" s="19">
+        <v>0</v>
+      </c>
+      <c r="N79" s="19">
+        <v>0</v>
+      </c>
+      <c r="O79" s="19">
+        <v>0</v>
+      </c>
+      <c r="P79" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="17">
+        <v>0</v>
+      </c>
+      <c r="R79" s="17">
+        <v>0</v>
+      </c>
+      <c r="S79" s="17">
+        <v>0</v>
+      </c>
+      <c r="T79" s="17">
+        <v>0</v>
+      </c>
+      <c r="U79" s="17">
+        <v>0</v>
+      </c>
+      <c r="V79" s="17">
+        <v>0</v>
+      </c>
+      <c r="W79" s="17">
+        <v>0</v>
+      </c>
+      <c r="X79" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="F79" s="19">
-        <v>0</v>
-      </c>
-      <c r="G79" s="17">
-        <v>0</v>
-      </c>
-      <c r="H79" s="17">
-        <v>0</v>
-      </c>
-      <c r="I79" s="17">
-        <v>0</v>
-      </c>
-      <c r="J79" s="17">
-        <v>0</v>
-      </c>
-      <c r="K79" s="17">
-        <v>0</v>
-      </c>
-      <c r="L79" s="19">
-        <v>0</v>
-      </c>
-      <c r="M79" s="19">
-        <v>0</v>
-      </c>
-      <c r="N79" s="19">
-        <v>0</v>
-      </c>
-      <c r="O79" s="19">
-        <v>0</v>
-      </c>
-      <c r="P79" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="17">
-        <v>0</v>
-      </c>
-      <c r="R79" s="17">
-        <v>0</v>
-      </c>
-      <c r="S79" s="17">
-        <v>0</v>
-      </c>
-      <c r="T79" s="17">
-        <v>0</v>
-      </c>
-      <c r="U79" s="17">
-        <v>0</v>
-      </c>
-      <c r="V79" s="17">
-        <v>0</v>
-      </c>
-      <c r="W79" s="17">
-        <v>0</v>
-      </c>
-      <c r="X79" s="17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="80" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8531,7 +8532,7 @@
         <v>131</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F80" s="19">
         <v>0</v>
@@ -8599,64 +8600,64 @@
         <v>131</v>
       </c>
       <c r="E81" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F81" s="19">
+        <v>0</v>
+      </c>
+      <c r="G81" s="17">
+        <v>0</v>
+      </c>
+      <c r="H81" s="17">
+        <v>0</v>
+      </c>
+      <c r="I81" s="17">
+        <v>0</v>
+      </c>
+      <c r="J81" s="17">
+        <v>0</v>
+      </c>
+      <c r="K81" s="17">
+        <v>0</v>
+      </c>
+      <c r="L81" s="19">
+        <v>0</v>
+      </c>
+      <c r="M81" s="19">
+        <v>0</v>
+      </c>
+      <c r="N81" s="19">
+        <v>0</v>
+      </c>
+      <c r="O81" s="19">
+        <v>0</v>
+      </c>
+      <c r="P81" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="17">
+        <v>0</v>
+      </c>
+      <c r="R81" s="17">
+        <v>0</v>
+      </c>
+      <c r="S81" s="17">
+        <v>0</v>
+      </c>
+      <c r="T81" s="17">
+        <v>0</v>
+      </c>
+      <c r="U81" s="17">
+        <v>0</v>
+      </c>
+      <c r="V81" s="17">
+        <v>0</v>
+      </c>
+      <c r="W81" s="17">
+        <v>0</v>
+      </c>
+      <c r="X81" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="F81" s="19">
-        <v>0</v>
-      </c>
-      <c r="G81" s="17">
-        <v>0</v>
-      </c>
-      <c r="H81" s="17">
-        <v>0</v>
-      </c>
-      <c r="I81" s="17">
-        <v>0</v>
-      </c>
-      <c r="J81" s="17">
-        <v>0</v>
-      </c>
-      <c r="K81" s="17">
-        <v>0</v>
-      </c>
-      <c r="L81" s="19">
-        <v>0</v>
-      </c>
-      <c r="M81" s="19">
-        <v>0</v>
-      </c>
-      <c r="N81" s="19">
-        <v>0</v>
-      </c>
-      <c r="O81" s="19">
-        <v>0</v>
-      </c>
-      <c r="P81" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="17">
-        <v>0</v>
-      </c>
-      <c r="R81" s="17">
-        <v>0</v>
-      </c>
-      <c r="S81" s="17">
-        <v>0</v>
-      </c>
-      <c r="T81" s="17">
-        <v>0</v>
-      </c>
-      <c r="U81" s="17">
-        <v>0</v>
-      </c>
-      <c r="V81" s="17">
-        <v>0</v>
-      </c>
-      <c r="W81" s="17">
-        <v>0</v>
-      </c>
-      <c r="X81" s="17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="82" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8667,7 +8668,7 @@
         <v>131</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F82" s="19">
         <v>0</v>
@@ -8735,7 +8736,7 @@
         <v>131</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F83" s="19">
         <v>0</v>
@@ -8803,64 +8804,64 @@
         <v>131</v>
       </c>
       <c r="E84" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F84" s="19">
+        <v>0</v>
+      </c>
+      <c r="G84" s="17">
+        <v>0</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0</v>
+      </c>
+      <c r="I84" s="17">
+        <v>0</v>
+      </c>
+      <c r="J84" s="17">
+        <v>0</v>
+      </c>
+      <c r="K84" s="17">
+        <v>0</v>
+      </c>
+      <c r="L84" s="19">
+        <v>0</v>
+      </c>
+      <c r="M84" s="19">
+        <v>0</v>
+      </c>
+      <c r="N84" s="19">
+        <v>0</v>
+      </c>
+      <c r="O84" s="19">
+        <v>0</v>
+      </c>
+      <c r="P84" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="17">
+        <v>0</v>
+      </c>
+      <c r="R84" s="17">
+        <v>0</v>
+      </c>
+      <c r="S84" s="17">
+        <v>0</v>
+      </c>
+      <c r="T84" s="17">
+        <v>0</v>
+      </c>
+      <c r="U84" s="17">
+        <v>0</v>
+      </c>
+      <c r="V84" s="17">
+        <v>0</v>
+      </c>
+      <c r="W84" s="17">
+        <v>0</v>
+      </c>
+      <c r="X84" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="F84" s="19">
-        <v>0</v>
-      </c>
-      <c r="G84" s="17">
-        <v>0</v>
-      </c>
-      <c r="H84" s="17">
-        <v>0</v>
-      </c>
-      <c r="I84" s="17">
-        <v>0</v>
-      </c>
-      <c r="J84" s="17">
-        <v>0</v>
-      </c>
-      <c r="K84" s="17">
-        <v>0</v>
-      </c>
-      <c r="L84" s="19">
-        <v>0</v>
-      </c>
-      <c r="M84" s="19">
-        <v>0</v>
-      </c>
-      <c r="N84" s="19">
-        <v>0</v>
-      </c>
-      <c r="O84" s="19">
-        <v>0</v>
-      </c>
-      <c r="P84" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="17">
-        <v>0</v>
-      </c>
-      <c r="R84" s="17">
-        <v>0</v>
-      </c>
-      <c r="S84" s="17">
-        <v>0</v>
-      </c>
-      <c r="T84" s="17">
-        <v>0</v>
-      </c>
-      <c r="U84" s="17">
-        <v>0</v>
-      </c>
-      <c r="V84" s="17">
-        <v>0</v>
-      </c>
-      <c r="W84" s="17">
-        <v>0</v>
-      </c>
-      <c r="X84" s="17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="85" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8871,7 +8872,7 @@
         <v>131</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F85" s="19">
         <v>0</v>
@@ -8939,7 +8940,7 @@
         <v>131</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F86" s="19">
         <v>0</v>
@@ -9007,7 +9008,7 @@
         <v>131</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F87" s="19">
         <v>0</v>
@@ -9075,7 +9076,7 @@
         <v>131</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F88" s="19">
         <v>0</v>
@@ -9143,7 +9144,7 @@
         <v>131</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F89" s="19">
         <v>0</v>
@@ -9211,7 +9212,7 @@
         <v>131</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F90" s="19">
         <v>0</v>
@@ -9279,7 +9280,7 @@
         <v>131</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F91" s="19">
         <v>0</v>
@@ -9347,7 +9348,7 @@
         <v>131</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F92" s="19">
         <v>0</v>
@@ -9415,7 +9416,7 @@
         <v>131</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F93" s="19">
         <v>0</v>
@@ -9483,64 +9484,64 @@
         <v>131</v>
       </c>
       <c r="E94" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94" s="19">
+        <v>0</v>
+      </c>
+      <c r="G94" s="17">
+        <v>0</v>
+      </c>
+      <c r="H94" s="17">
+        <v>0</v>
+      </c>
+      <c r="I94" s="17">
+        <v>0</v>
+      </c>
+      <c r="J94" s="17">
+        <v>0</v>
+      </c>
+      <c r="K94" s="17">
+        <v>0</v>
+      </c>
+      <c r="L94" s="19">
+        <v>0</v>
+      </c>
+      <c r="M94" s="19">
+        <v>0</v>
+      </c>
+      <c r="N94" s="19">
+        <v>0</v>
+      </c>
+      <c r="O94" s="19">
+        <v>0</v>
+      </c>
+      <c r="P94" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="17">
+        <v>0</v>
+      </c>
+      <c r="R94" s="17">
+        <v>0</v>
+      </c>
+      <c r="S94" s="17">
+        <v>0</v>
+      </c>
+      <c r="T94" s="17">
+        <v>0</v>
+      </c>
+      <c r="U94" s="17">
+        <v>0</v>
+      </c>
+      <c r="V94" s="17">
+        <v>0</v>
+      </c>
+      <c r="W94" s="17">
+        <v>0</v>
+      </c>
+      <c r="X94" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="F94" s="19">
-        <v>0</v>
-      </c>
-      <c r="G94" s="17">
-        <v>0</v>
-      </c>
-      <c r="H94" s="17">
-        <v>0</v>
-      </c>
-      <c r="I94" s="17">
-        <v>0</v>
-      </c>
-      <c r="J94" s="17">
-        <v>0</v>
-      </c>
-      <c r="K94" s="17">
-        <v>0</v>
-      </c>
-      <c r="L94" s="19">
-        <v>0</v>
-      </c>
-      <c r="M94" s="19">
-        <v>0</v>
-      </c>
-      <c r="N94" s="19">
-        <v>0</v>
-      </c>
-      <c r="O94" s="19">
-        <v>0</v>
-      </c>
-      <c r="P94" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="17">
-        <v>0</v>
-      </c>
-      <c r="R94" s="17">
-        <v>0</v>
-      </c>
-      <c r="S94" s="17">
-        <v>0</v>
-      </c>
-      <c r="T94" s="17">
-        <v>0</v>
-      </c>
-      <c r="U94" s="17">
-        <v>0</v>
-      </c>
-      <c r="V94" s="17">
-        <v>0</v>
-      </c>
-      <c r="W94" s="17">
-        <v>0</v>
-      </c>
-      <c r="X94" s="17" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="95" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9551,7 +9552,7 @@
         <v>131</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F95" s="19">
         <v>0</v>
@@ -9619,7 +9620,7 @@
         <v>131</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F96" s="14">
         <v>0</v>
@@ -9687,64 +9688,64 @@
         <v>131</v>
       </c>
       <c r="E97" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F97" s="19">
+        <v>0</v>
+      </c>
+      <c r="G97" s="17">
+        <v>0</v>
+      </c>
+      <c r="H97" s="17">
+        <v>0</v>
+      </c>
+      <c r="I97" s="17">
+        <v>0</v>
+      </c>
+      <c r="J97" s="17">
+        <v>0</v>
+      </c>
+      <c r="K97" s="17">
+        <v>0</v>
+      </c>
+      <c r="L97" s="19">
+        <v>0</v>
+      </c>
+      <c r="M97" s="19">
+        <v>0</v>
+      </c>
+      <c r="N97" s="19">
+        <v>0</v>
+      </c>
+      <c r="O97" s="19">
+        <v>0</v>
+      </c>
+      <c r="P97" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="17">
+        <v>0</v>
+      </c>
+      <c r="R97" s="17">
+        <v>0</v>
+      </c>
+      <c r="S97" s="17">
+        <v>0</v>
+      </c>
+      <c r="T97" s="17">
+        <v>0</v>
+      </c>
+      <c r="U97" s="17">
+        <v>0</v>
+      </c>
+      <c r="V97" s="17">
+        <v>0</v>
+      </c>
+      <c r="W97" s="17">
+        <v>0</v>
+      </c>
+      <c r="X97" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="F97" s="19">
-        <v>0</v>
-      </c>
-      <c r="G97" s="17">
-        <v>0</v>
-      </c>
-      <c r="H97" s="17">
-        <v>0</v>
-      </c>
-      <c r="I97" s="17">
-        <v>0</v>
-      </c>
-      <c r="J97" s="17">
-        <v>0</v>
-      </c>
-      <c r="K97" s="17">
-        <v>0</v>
-      </c>
-      <c r="L97" s="19">
-        <v>0</v>
-      </c>
-      <c r="M97" s="19">
-        <v>0</v>
-      </c>
-      <c r="N97" s="19">
-        <v>0</v>
-      </c>
-      <c r="O97" s="19">
-        <v>0</v>
-      </c>
-      <c r="P97" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="17">
-        <v>0</v>
-      </c>
-      <c r="R97" s="17">
-        <v>0</v>
-      </c>
-      <c r="S97" s="17">
-        <v>0</v>
-      </c>
-      <c r="T97" s="17">
-        <v>0</v>
-      </c>
-      <c r="U97" s="17">
-        <v>0</v>
-      </c>
-      <c r="V97" s="17">
-        <v>0</v>
-      </c>
-      <c r="W97" s="17">
-        <v>0</v>
-      </c>
-      <c r="X97" s="17" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="98" spans="3:24" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9755,7 +9756,7 @@
         <v>131</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F98" s="19">
         <v>0</v>
@@ -9823,7 +9824,7 @@
         <v>131</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F99" s="19">
         <v>0</v>
@@ -9891,64 +9892,64 @@
         <v>131</v>
       </c>
       <c r="E100" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F100" s="19">
+        <v>0</v>
+      </c>
+      <c r="G100" s="17">
+        <v>0</v>
+      </c>
+      <c r="H100" s="17">
+        <v>0</v>
+      </c>
+      <c r="I100" s="17">
+        <v>0</v>
+      </c>
+      <c r="J100" s="17">
+        <v>0</v>
+      </c>
+      <c r="K100" s="17">
+        <v>0</v>
+      </c>
+      <c r="L100" s="19">
+        <v>0</v>
+      </c>
+      <c r="M100" s="19">
+        <v>0</v>
+      </c>
+      <c r="N100" s="19">
+        <v>0</v>
+      </c>
+      <c r="O100" s="19">
+        <v>0</v>
+      </c>
+      <c r="P100" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="17">
+        <v>0</v>
+      </c>
+      <c r="R100" s="17">
+        <v>0</v>
+      </c>
+      <c r="S100" s="17">
+        <v>0</v>
+      </c>
+      <c r="T100" s="17">
+        <v>0</v>
+      </c>
+      <c r="U100" s="17">
+        <v>0</v>
+      </c>
+      <c r="V100" s="17">
+        <v>0</v>
+      </c>
+      <c r="W100" s="17">
+        <v>0</v>
+      </c>
+      <c r="X100" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="F100" s="19">
-        <v>0</v>
-      </c>
-      <c r="G100" s="17">
-        <v>0</v>
-      </c>
-      <c r="H100" s="17">
-        <v>0</v>
-      </c>
-      <c r="I100" s="17">
-        <v>0</v>
-      </c>
-      <c r="J100" s="17">
-        <v>0</v>
-      </c>
-      <c r="K100" s="17">
-        <v>0</v>
-      </c>
-      <c r="L100" s="19">
-        <v>0</v>
-      </c>
-      <c r="M100" s="19">
-        <v>0</v>
-      </c>
-      <c r="N100" s="19">
-        <v>0</v>
-      </c>
-      <c r="O100" s="19">
-        <v>0</v>
-      </c>
-      <c r="P100" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="17">
-        <v>0</v>
-      </c>
-      <c r="R100" s="17">
-        <v>0</v>
-      </c>
-      <c r="S100" s="17">
-        <v>0</v>
-      </c>
-      <c r="T100" s="17">
-        <v>0</v>
-      </c>
-      <c r="U100" s="17">
-        <v>0</v>
-      </c>
-      <c r="V100" s="17">
-        <v>0</v>
-      </c>
-      <c r="W100" s="17">
-        <v>0</v>
-      </c>
-      <c r="X100" s="17" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="101" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9959,7 +9960,7 @@
         <v>131</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F101" s="14">
         <v>0</v>
@@ -10027,7 +10028,7 @@
         <v>131</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F102" s="14">
         <v>0</v>
@@ -10095,7 +10096,7 @@
         <v>131</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F103" s="14">
         <v>0</v>
@@ -10163,7 +10164,7 @@
         <v>131</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F104" s="14">
         <v>0</v>
@@ -10231,7 +10232,7 @@
         <v>131</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F105" s="14">
         <v>0</v>
@@ -10299,7 +10300,7 @@
         <v>131</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F106" s="14">
         <v>0</v>
@@ -10367,7 +10368,7 @@
         <v>131</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F107" s="14">
         <v>0</v>
@@ -10435,7 +10436,7 @@
         <v>131</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F108" s="14">
         <v>0</v>
@@ -10503,7 +10504,7 @@
         <v>131</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F109" s="14">
         <v>0</v>
@@ -10560,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="X109" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10571,64 +10572,64 @@
         <v>131</v>
       </c>
       <c r="E110" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F110" s="14">
+        <v>0</v>
+      </c>
+      <c r="G110" s="12">
+        <v>0</v>
+      </c>
+      <c r="H110" s="12">
+        <v>0</v>
+      </c>
+      <c r="I110" s="12">
+        <v>0</v>
+      </c>
+      <c r="J110" s="12">
+        <v>0</v>
+      </c>
+      <c r="K110" s="12">
+        <v>0</v>
+      </c>
+      <c r="L110" s="14">
+        <v>0</v>
+      </c>
+      <c r="M110" s="14">
+        <v>0</v>
+      </c>
+      <c r="N110" s="14">
+        <v>0</v>
+      </c>
+      <c r="O110" s="14">
+        <v>0</v>
+      </c>
+      <c r="P110" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="12">
+        <v>0</v>
+      </c>
+      <c r="R110" s="12">
+        <v>0</v>
+      </c>
+      <c r="S110" s="12">
+        <v>0</v>
+      </c>
+      <c r="T110" s="12">
+        <v>0</v>
+      </c>
+      <c r="U110" s="12">
+        <v>0</v>
+      </c>
+      <c r="V110" s="12">
+        <v>0</v>
+      </c>
+      <c r="W110" s="12">
+        <v>0</v>
+      </c>
+      <c r="X110" s="20" t="s">
         <v>173</v>
-      </c>
-      <c r="F110" s="14">
-        <v>0</v>
-      </c>
-      <c r="G110" s="12">
-        <v>0</v>
-      </c>
-      <c r="H110" s="12">
-        <v>0</v>
-      </c>
-      <c r="I110" s="12">
-        <v>0</v>
-      </c>
-      <c r="J110" s="12">
-        <v>0</v>
-      </c>
-      <c r="K110" s="12">
-        <v>0</v>
-      </c>
-      <c r="L110" s="14">
-        <v>0</v>
-      </c>
-      <c r="M110" s="14">
-        <v>0</v>
-      </c>
-      <c r="N110" s="14">
-        <v>0</v>
-      </c>
-      <c r="O110" s="14">
-        <v>0</v>
-      </c>
-      <c r="P110" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="12">
-        <v>0</v>
-      </c>
-      <c r="R110" s="12">
-        <v>0</v>
-      </c>
-      <c r="S110" s="12">
-        <v>0</v>
-      </c>
-      <c r="T110" s="12">
-        <v>0</v>
-      </c>
-      <c r="U110" s="12">
-        <v>0</v>
-      </c>
-      <c r="V110" s="12">
-        <v>0</v>
-      </c>
-      <c r="W110" s="12">
-        <v>0</v>
-      </c>
-      <c r="X110" s="20" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="111" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10639,7 +10640,7 @@
         <v>131</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F111" s="14">
         <v>0</v>
@@ -10707,64 +10708,64 @@
         <v>131</v>
       </c>
       <c r="E112" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F112" s="14">
+        <v>0</v>
+      </c>
+      <c r="G112" s="12">
+        <v>0</v>
+      </c>
+      <c r="H112" s="12">
+        <v>0</v>
+      </c>
+      <c r="I112" s="12">
+        <v>0</v>
+      </c>
+      <c r="J112" s="12">
+        <v>0</v>
+      </c>
+      <c r="K112" s="12">
+        <v>0</v>
+      </c>
+      <c r="L112" s="14">
+        <v>0</v>
+      </c>
+      <c r="M112" s="14">
+        <v>0</v>
+      </c>
+      <c r="N112" s="14">
+        <v>0</v>
+      </c>
+      <c r="O112" s="14">
+        <v>0</v>
+      </c>
+      <c r="P112" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="12">
+        <v>0</v>
+      </c>
+      <c r="R112" s="12">
+        <v>0</v>
+      </c>
+      <c r="S112" s="12">
+        <v>0</v>
+      </c>
+      <c r="T112" s="12">
+        <v>0</v>
+      </c>
+      <c r="U112" s="12">
+        <v>0</v>
+      </c>
+      <c r="V112" s="12">
+        <v>0</v>
+      </c>
+      <c r="W112" s="12">
+        <v>0</v>
+      </c>
+      <c r="X112" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="F112" s="14">
-        <v>0</v>
-      </c>
-      <c r="G112" s="12">
-        <v>0</v>
-      </c>
-      <c r="H112" s="12">
-        <v>0</v>
-      </c>
-      <c r="I112" s="12">
-        <v>0</v>
-      </c>
-      <c r="J112" s="12">
-        <v>0</v>
-      </c>
-      <c r="K112" s="12">
-        <v>0</v>
-      </c>
-      <c r="L112" s="14">
-        <v>0</v>
-      </c>
-      <c r="M112" s="14">
-        <v>0</v>
-      </c>
-      <c r="N112" s="14">
-        <v>0</v>
-      </c>
-      <c r="O112" s="14">
-        <v>0</v>
-      </c>
-      <c r="P112" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="12">
-        <v>0</v>
-      </c>
-      <c r="R112" s="12">
-        <v>0</v>
-      </c>
-      <c r="S112" s="12">
-        <v>0</v>
-      </c>
-      <c r="T112" s="12">
-        <v>0</v>
-      </c>
-      <c r="U112" s="12">
-        <v>0</v>
-      </c>
-      <c r="V112" s="12">
-        <v>0</v>
-      </c>
-      <c r="W112" s="12">
-        <v>0</v>
-      </c>
-      <c r="X112" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="113" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10775,64 +10776,64 @@
         <v>131</v>
       </c>
       <c r="E113" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F113" s="14">
+        <v>0</v>
+      </c>
+      <c r="G113" s="12">
+        <v>0</v>
+      </c>
+      <c r="H113" s="12">
+        <v>0</v>
+      </c>
+      <c r="I113" s="12">
+        <v>0</v>
+      </c>
+      <c r="J113" s="12">
+        <v>0</v>
+      </c>
+      <c r="K113" s="12">
+        <v>0</v>
+      </c>
+      <c r="L113" s="14">
+        <v>0</v>
+      </c>
+      <c r="M113" s="14">
+        <v>0</v>
+      </c>
+      <c r="N113" s="14">
+        <v>0</v>
+      </c>
+      <c r="O113" s="14">
+        <v>0</v>
+      </c>
+      <c r="P113" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="12">
+        <v>0</v>
+      </c>
+      <c r="R113" s="12">
+        <v>0</v>
+      </c>
+      <c r="S113" s="12">
+        <v>0</v>
+      </c>
+      <c r="T113" s="12">
+        <v>0</v>
+      </c>
+      <c r="U113" s="12">
+        <v>0</v>
+      </c>
+      <c r="V113" s="12">
+        <v>0</v>
+      </c>
+      <c r="W113" s="12">
+        <v>0</v>
+      </c>
+      <c r="X113" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="F113" s="14">
-        <v>0</v>
-      </c>
-      <c r="G113" s="12">
-        <v>0</v>
-      </c>
-      <c r="H113" s="12">
-        <v>0</v>
-      </c>
-      <c r="I113" s="12">
-        <v>0</v>
-      </c>
-      <c r="J113" s="12">
-        <v>0</v>
-      </c>
-      <c r="K113" s="12">
-        <v>0</v>
-      </c>
-      <c r="L113" s="14">
-        <v>0</v>
-      </c>
-      <c r="M113" s="14">
-        <v>0</v>
-      </c>
-      <c r="N113" s="14">
-        <v>0</v>
-      </c>
-      <c r="O113" s="14">
-        <v>0</v>
-      </c>
-      <c r="P113" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="12">
-        <v>0</v>
-      </c>
-      <c r="R113" s="12">
-        <v>0</v>
-      </c>
-      <c r="S113" s="12">
-        <v>0</v>
-      </c>
-      <c r="T113" s="12">
-        <v>0</v>
-      </c>
-      <c r="U113" s="12">
-        <v>0</v>
-      </c>
-      <c r="V113" s="12">
-        <v>0</v>
-      </c>
-      <c r="W113" s="12">
-        <v>0</v>
-      </c>
-      <c r="X113" s="20" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="114" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10843,7 +10844,7 @@
         <v>131</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F114" s="14">
         <v>0</v>
@@ -10911,7 +10912,7 @@
         <v>131</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F115" s="14">
         <v>0</v>
@@ -10979,64 +10980,64 @@
         <v>131</v>
       </c>
       <c r="E116" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F116" s="14">
+        <v>0</v>
+      </c>
+      <c r="G116" s="12">
+        <v>0</v>
+      </c>
+      <c r="H116" s="12">
+        <v>0</v>
+      </c>
+      <c r="I116" s="12">
+        <v>0</v>
+      </c>
+      <c r="J116" s="12">
+        <v>0</v>
+      </c>
+      <c r="K116" s="12">
+        <v>0</v>
+      </c>
+      <c r="L116" s="14">
+        <v>0</v>
+      </c>
+      <c r="M116" s="14">
+        <v>0</v>
+      </c>
+      <c r="N116" s="14">
+        <v>0</v>
+      </c>
+      <c r="O116" s="14">
+        <v>0</v>
+      </c>
+      <c r="P116" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="12">
+        <v>0</v>
+      </c>
+      <c r="R116" s="12">
+        <v>0</v>
+      </c>
+      <c r="S116" s="12">
+        <v>0</v>
+      </c>
+      <c r="T116" s="12">
+        <v>0</v>
+      </c>
+      <c r="U116" s="12">
+        <v>0</v>
+      </c>
+      <c r="V116" s="12">
+        <v>0</v>
+      </c>
+      <c r="W116" s="12">
+        <v>0</v>
+      </c>
+      <c r="X116" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="F116" s="14">
-        <v>0</v>
-      </c>
-      <c r="G116" s="12">
-        <v>0</v>
-      </c>
-      <c r="H116" s="12">
-        <v>0</v>
-      </c>
-      <c r="I116" s="12">
-        <v>0</v>
-      </c>
-      <c r="J116" s="12">
-        <v>0</v>
-      </c>
-      <c r="K116" s="12">
-        <v>0</v>
-      </c>
-      <c r="L116" s="14">
-        <v>0</v>
-      </c>
-      <c r="M116" s="14">
-        <v>0</v>
-      </c>
-      <c r="N116" s="14">
-        <v>0</v>
-      </c>
-      <c r="O116" s="14">
-        <v>0</v>
-      </c>
-      <c r="P116" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="12">
-        <v>0</v>
-      </c>
-      <c r="R116" s="12">
-        <v>0</v>
-      </c>
-      <c r="S116" s="12">
-        <v>0</v>
-      </c>
-      <c r="T116" s="12">
-        <v>0</v>
-      </c>
-      <c r="U116" s="12">
-        <v>0</v>
-      </c>
-      <c r="V116" s="12">
-        <v>0</v>
-      </c>
-      <c r="W116" s="12">
-        <v>0</v>
-      </c>
-      <c r="X116" s="20" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="117" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11047,7 +11048,7 @@
         <v>131</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F117" s="14">
         <v>0</v>
@@ -11115,7 +11116,7 @@
         <v>131</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F118" s="14">
         <v>0</v>
@@ -11172,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="X118" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11183,7 +11184,7 @@
         <v>131</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F119" s="14">
         <v>0</v>
@@ -11240,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="X119" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11251,7 +11252,7 @@
         <v>131</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F120" s="14">
         <v>0</v>
@@ -11319,64 +11320,64 @@
         <v>131</v>
       </c>
       <c r="E121" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F121" s="14">
+        <v>0</v>
+      </c>
+      <c r="G121" s="12">
+        <v>0</v>
+      </c>
+      <c r="H121" s="12">
+        <v>0</v>
+      </c>
+      <c r="I121" s="12">
+        <v>0</v>
+      </c>
+      <c r="J121" s="12">
+        <v>0</v>
+      </c>
+      <c r="K121" s="12">
+        <v>0</v>
+      </c>
+      <c r="L121" s="14">
+        <v>0</v>
+      </c>
+      <c r="M121" s="14">
+        <v>0</v>
+      </c>
+      <c r="N121" s="14">
+        <v>0</v>
+      </c>
+      <c r="O121" s="14">
+        <v>0</v>
+      </c>
+      <c r="P121" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="12">
+        <v>0</v>
+      </c>
+      <c r="R121" s="12">
+        <v>0</v>
+      </c>
+      <c r="S121" s="12">
+        <v>0</v>
+      </c>
+      <c r="T121" s="12">
+        <v>0</v>
+      </c>
+      <c r="U121" s="12">
+        <v>0</v>
+      </c>
+      <c r="V121" s="12">
+        <v>0</v>
+      </c>
+      <c r="W121" s="12">
+        <v>0</v>
+      </c>
+      <c r="X121" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="F121" s="14">
-        <v>0</v>
-      </c>
-      <c r="G121" s="12">
-        <v>0</v>
-      </c>
-      <c r="H121" s="12">
-        <v>0</v>
-      </c>
-      <c r="I121" s="12">
-        <v>0</v>
-      </c>
-      <c r="J121" s="12">
-        <v>0</v>
-      </c>
-      <c r="K121" s="12">
-        <v>0</v>
-      </c>
-      <c r="L121" s="14">
-        <v>0</v>
-      </c>
-      <c r="M121" s="14">
-        <v>0</v>
-      </c>
-      <c r="N121" s="14">
-        <v>0</v>
-      </c>
-      <c r="O121" s="14">
-        <v>0</v>
-      </c>
-      <c r="P121" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="12">
-        <v>0</v>
-      </c>
-      <c r="R121" s="12">
-        <v>0</v>
-      </c>
-      <c r="S121" s="12">
-        <v>0</v>
-      </c>
-      <c r="T121" s="12">
-        <v>0</v>
-      </c>
-      <c r="U121" s="12">
-        <v>0</v>
-      </c>
-      <c r="V121" s="12">
-        <v>0</v>
-      </c>
-      <c r="W121" s="12">
-        <v>0</v>
-      </c>
-      <c r="X121" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="122" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11387,64 +11388,64 @@
         <v>131</v>
       </c>
       <c r="E122" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F122" s="14">
+        <v>0</v>
+      </c>
+      <c r="G122" s="12">
+        <v>0</v>
+      </c>
+      <c r="H122" s="12">
+        <v>0</v>
+      </c>
+      <c r="I122" s="12">
+        <v>0</v>
+      </c>
+      <c r="J122" s="12">
+        <v>0</v>
+      </c>
+      <c r="K122" s="12">
+        <v>0</v>
+      </c>
+      <c r="L122" s="14">
+        <v>0</v>
+      </c>
+      <c r="M122" s="14">
+        <v>0</v>
+      </c>
+      <c r="N122" s="14">
+        <v>0</v>
+      </c>
+      <c r="O122" s="14">
+        <v>0</v>
+      </c>
+      <c r="P122" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="12">
+        <v>0</v>
+      </c>
+      <c r="R122" s="12">
+        <v>0</v>
+      </c>
+      <c r="S122" s="12">
+        <v>0</v>
+      </c>
+      <c r="T122" s="12">
+        <v>0</v>
+      </c>
+      <c r="U122" s="12">
+        <v>0</v>
+      </c>
+      <c r="V122" s="12">
+        <v>0</v>
+      </c>
+      <c r="W122" s="12">
+        <v>0</v>
+      </c>
+      <c r="X122" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="F122" s="14">
-        <v>0</v>
-      </c>
-      <c r="G122" s="12">
-        <v>0</v>
-      </c>
-      <c r="H122" s="12">
-        <v>0</v>
-      </c>
-      <c r="I122" s="12">
-        <v>0</v>
-      </c>
-      <c r="J122" s="12">
-        <v>0</v>
-      </c>
-      <c r="K122" s="12">
-        <v>0</v>
-      </c>
-      <c r="L122" s="14">
-        <v>0</v>
-      </c>
-      <c r="M122" s="14">
-        <v>0</v>
-      </c>
-      <c r="N122" s="14">
-        <v>0</v>
-      </c>
-      <c r="O122" s="14">
-        <v>0</v>
-      </c>
-      <c r="P122" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q122" s="12">
-        <v>0</v>
-      </c>
-      <c r="R122" s="12">
-        <v>0</v>
-      </c>
-      <c r="S122" s="12">
-        <v>0</v>
-      </c>
-      <c r="T122" s="12">
-        <v>0</v>
-      </c>
-      <c r="U122" s="12">
-        <v>0</v>
-      </c>
-      <c r="V122" s="12">
-        <v>0</v>
-      </c>
-      <c r="W122" s="12">
-        <v>0</v>
-      </c>
-      <c r="X122" s="20" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="123" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11455,7 +11456,7 @@
         <v>131</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F123" s="14">
         <v>0</v>
@@ -11523,7 +11524,7 @@
         <v>131</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F124" s="14">
         <v>0</v>
@@ -11591,64 +11592,64 @@
         <v>131</v>
       </c>
       <c r="E125" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F125" s="14">
+        <v>0</v>
+      </c>
+      <c r="G125" s="12">
+        <v>0</v>
+      </c>
+      <c r="H125" s="12">
+        <v>0</v>
+      </c>
+      <c r="I125" s="12">
+        <v>0</v>
+      </c>
+      <c r="J125" s="12">
+        <v>0</v>
+      </c>
+      <c r="K125" s="12">
+        <v>0</v>
+      </c>
+      <c r="L125" s="14">
+        <v>0</v>
+      </c>
+      <c r="M125" s="14">
+        <v>0</v>
+      </c>
+      <c r="N125" s="14">
+        <v>0</v>
+      </c>
+      <c r="O125" s="14">
+        <v>0</v>
+      </c>
+      <c r="P125" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="12">
+        <v>0</v>
+      </c>
+      <c r="R125" s="12">
+        <v>0</v>
+      </c>
+      <c r="S125" s="12">
+        <v>0</v>
+      </c>
+      <c r="T125" s="12">
+        <v>0</v>
+      </c>
+      <c r="U125" s="12">
+        <v>0</v>
+      </c>
+      <c r="V125" s="12">
+        <v>0</v>
+      </c>
+      <c r="W125" s="12">
+        <v>0</v>
+      </c>
+      <c r="X125" s="20" t="s">
         <v>228</v>
-      </c>
-      <c r="F125" s="14">
-        <v>0</v>
-      </c>
-      <c r="G125" s="12">
-        <v>0</v>
-      </c>
-      <c r="H125" s="12">
-        <v>0</v>
-      </c>
-      <c r="I125" s="12">
-        <v>0</v>
-      </c>
-      <c r="J125" s="12">
-        <v>0</v>
-      </c>
-      <c r="K125" s="12">
-        <v>0</v>
-      </c>
-      <c r="L125" s="14">
-        <v>0</v>
-      </c>
-      <c r="M125" s="14">
-        <v>0</v>
-      </c>
-      <c r="N125" s="14">
-        <v>0</v>
-      </c>
-      <c r="O125" s="14">
-        <v>0</v>
-      </c>
-      <c r="P125" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q125" s="12">
-        <v>0</v>
-      </c>
-      <c r="R125" s="12">
-        <v>0</v>
-      </c>
-      <c r="S125" s="12">
-        <v>0</v>
-      </c>
-      <c r="T125" s="12">
-        <v>0</v>
-      </c>
-      <c r="U125" s="12">
-        <v>0</v>
-      </c>
-      <c r="V125" s="12">
-        <v>0</v>
-      </c>
-      <c r="W125" s="12">
-        <v>0</v>
-      </c>
-      <c r="X125" s="20" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="126" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11659,7 +11660,7 @@
         <v>131</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F126" s="14">
         <v>0</v>
@@ -11727,7 +11728,7 @@
         <v>131</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F127" s="14">
         <v>0</v>
@@ -11784,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="X127" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11795,7 +11796,7 @@
         <v>131</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F128" s="14">
         <v>0</v>
@@ -11852,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="X128" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11863,7 +11864,7 @@
         <v>131</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F129" s="14">
         <v>0</v>
@@ -11931,64 +11932,64 @@
         <v>131</v>
       </c>
       <c r="E130" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F130" s="14">
+        <v>0</v>
+      </c>
+      <c r="G130" s="12">
+        <v>0</v>
+      </c>
+      <c r="H130" s="12">
+        <v>0</v>
+      </c>
+      <c r="I130" s="12">
+        <v>0</v>
+      </c>
+      <c r="J130" s="12">
+        <v>0</v>
+      </c>
+      <c r="K130" s="12">
+        <v>0</v>
+      </c>
+      <c r="L130" s="14">
+        <v>0</v>
+      </c>
+      <c r="M130" s="14">
+        <v>0</v>
+      </c>
+      <c r="N130" s="14">
+        <v>0</v>
+      </c>
+      <c r="O130" s="14">
+        <v>0</v>
+      </c>
+      <c r="P130" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="12">
+        <v>0</v>
+      </c>
+      <c r="R130" s="12">
+        <v>0</v>
+      </c>
+      <c r="S130" s="12">
+        <v>0</v>
+      </c>
+      <c r="T130" s="12">
+        <v>0</v>
+      </c>
+      <c r="U130" s="12">
+        <v>0</v>
+      </c>
+      <c r="V130" s="12">
+        <v>0</v>
+      </c>
+      <c r="W130" s="12">
+        <v>0</v>
+      </c>
+      <c r="X130" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="F130" s="14">
-        <v>0</v>
-      </c>
-      <c r="G130" s="12">
-        <v>0</v>
-      </c>
-      <c r="H130" s="12">
-        <v>0</v>
-      </c>
-      <c r="I130" s="12">
-        <v>0</v>
-      </c>
-      <c r="J130" s="12">
-        <v>0</v>
-      </c>
-      <c r="K130" s="12">
-        <v>0</v>
-      </c>
-      <c r="L130" s="14">
-        <v>0</v>
-      </c>
-      <c r="M130" s="14">
-        <v>0</v>
-      </c>
-      <c r="N130" s="14">
-        <v>0</v>
-      </c>
-      <c r="O130" s="14">
-        <v>0</v>
-      </c>
-      <c r="P130" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q130" s="12">
-        <v>0</v>
-      </c>
-      <c r="R130" s="12">
-        <v>0</v>
-      </c>
-      <c r="S130" s="12">
-        <v>0</v>
-      </c>
-      <c r="T130" s="12">
-        <v>0</v>
-      </c>
-      <c r="U130" s="12">
-        <v>0</v>
-      </c>
-      <c r="V130" s="12">
-        <v>0</v>
-      </c>
-      <c r="W130" s="12">
-        <v>0</v>
-      </c>
-      <c r="X130" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="131" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11999,64 +12000,64 @@
         <v>131</v>
       </c>
       <c r="E131" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F131" s="14">
+        <v>0</v>
+      </c>
+      <c r="G131" s="12">
+        <v>0</v>
+      </c>
+      <c r="H131" s="12">
+        <v>0</v>
+      </c>
+      <c r="I131" s="12">
+        <v>0</v>
+      </c>
+      <c r="J131" s="12">
+        <v>0</v>
+      </c>
+      <c r="K131" s="12">
+        <v>0</v>
+      </c>
+      <c r="L131" s="14">
+        <v>0</v>
+      </c>
+      <c r="M131" s="14">
+        <v>0</v>
+      </c>
+      <c r="N131" s="14">
+        <v>0</v>
+      </c>
+      <c r="O131" s="14">
+        <v>0</v>
+      </c>
+      <c r="P131" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="12">
+        <v>0</v>
+      </c>
+      <c r="R131" s="12">
+        <v>0</v>
+      </c>
+      <c r="S131" s="12">
+        <v>0</v>
+      </c>
+      <c r="T131" s="12">
+        <v>0</v>
+      </c>
+      <c r="U131" s="12">
+        <v>0</v>
+      </c>
+      <c r="V131" s="12">
+        <v>0</v>
+      </c>
+      <c r="W131" s="12">
+        <v>0</v>
+      </c>
+      <c r="X131" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="F131" s="14">
-        <v>0</v>
-      </c>
-      <c r="G131" s="12">
-        <v>0</v>
-      </c>
-      <c r="H131" s="12">
-        <v>0</v>
-      </c>
-      <c r="I131" s="12">
-        <v>0</v>
-      </c>
-      <c r="J131" s="12">
-        <v>0</v>
-      </c>
-      <c r="K131" s="12">
-        <v>0</v>
-      </c>
-      <c r="L131" s="14">
-        <v>0</v>
-      </c>
-      <c r="M131" s="14">
-        <v>0</v>
-      </c>
-      <c r="N131" s="14">
-        <v>0</v>
-      </c>
-      <c r="O131" s="14">
-        <v>0</v>
-      </c>
-      <c r="P131" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q131" s="12">
-        <v>0</v>
-      </c>
-      <c r="R131" s="12">
-        <v>0</v>
-      </c>
-      <c r="S131" s="12">
-        <v>0</v>
-      </c>
-      <c r="T131" s="12">
-        <v>0</v>
-      </c>
-      <c r="U131" s="12">
-        <v>0</v>
-      </c>
-      <c r="V131" s="12">
-        <v>0</v>
-      </c>
-      <c r="W131" s="12">
-        <v>0</v>
-      </c>
-      <c r="X131" s="20" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="132" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12067,7 +12068,7 @@
         <v>131</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F132" s="14">
         <v>0</v>
@@ -12135,7 +12136,7 @@
         <v>131</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F133" s="14">
         <v>0</v>
@@ -12203,64 +12204,64 @@
         <v>131</v>
       </c>
       <c r="E134" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F134" s="14">
+        <v>0</v>
+      </c>
+      <c r="G134" s="12">
+        <v>0</v>
+      </c>
+      <c r="H134" s="12">
+        <v>0</v>
+      </c>
+      <c r="I134" s="12">
+        <v>0</v>
+      </c>
+      <c r="J134" s="12">
+        <v>0</v>
+      </c>
+      <c r="K134" s="12">
+        <v>0</v>
+      </c>
+      <c r="L134" s="14">
+        <v>0</v>
+      </c>
+      <c r="M134" s="14">
+        <v>0</v>
+      </c>
+      <c r="N134" s="14">
+        <v>0</v>
+      </c>
+      <c r="O134" s="14">
+        <v>0</v>
+      </c>
+      <c r="P134" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="12">
+        <v>0</v>
+      </c>
+      <c r="R134" s="12">
+        <v>0</v>
+      </c>
+      <c r="S134" s="12">
+        <v>0</v>
+      </c>
+      <c r="T134" s="12">
+        <v>0</v>
+      </c>
+      <c r="U134" s="12">
+        <v>0</v>
+      </c>
+      <c r="V134" s="12">
+        <v>0</v>
+      </c>
+      <c r="W134" s="12">
+        <v>0</v>
+      </c>
+      <c r="X134" s="20" t="s">
         <v>228</v>
-      </c>
-      <c r="F134" s="14">
-        <v>0</v>
-      </c>
-      <c r="G134" s="12">
-        <v>0</v>
-      </c>
-      <c r="H134" s="12">
-        <v>0</v>
-      </c>
-      <c r="I134" s="12">
-        <v>0</v>
-      </c>
-      <c r="J134" s="12">
-        <v>0</v>
-      </c>
-      <c r="K134" s="12">
-        <v>0</v>
-      </c>
-      <c r="L134" s="14">
-        <v>0</v>
-      </c>
-      <c r="M134" s="14">
-        <v>0</v>
-      </c>
-      <c r="N134" s="14">
-        <v>0</v>
-      </c>
-      <c r="O134" s="14">
-        <v>0</v>
-      </c>
-      <c r="P134" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q134" s="12">
-        <v>0</v>
-      </c>
-      <c r="R134" s="12">
-        <v>0</v>
-      </c>
-      <c r="S134" s="12">
-        <v>0</v>
-      </c>
-      <c r="T134" s="12">
-        <v>0</v>
-      </c>
-      <c r="U134" s="12">
-        <v>0</v>
-      </c>
-      <c r="V134" s="12">
-        <v>0</v>
-      </c>
-      <c r="W134" s="12">
-        <v>0</v>
-      </c>
-      <c r="X134" s="20" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="135" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12271,7 +12272,7 @@
         <v>131</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F135" s="14">
         <v>0</v>
@@ -12339,7 +12340,7 @@
         <v>131</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F136" s="14">
         <v>0</v>
@@ -12396,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="X136" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12404,10 +12405,10 @@
         <v>200001</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F137" s="14">
         <v>0</v>
@@ -12472,10 +12473,10 @@
         <v>300011</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F138" s="14">
         <v>0</v>
@@ -12532,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="X138" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12540,10 +12541,10 @@
         <v>300012</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F139" s="14">
         <v>0</v>
@@ -12600,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="X139" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12608,10 +12609,10 @@
         <v>300013</v>
       </c>
       <c r="D140" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E140" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="F140" s="14">
         <v>0</v>
@@ -12676,10 +12677,10 @@
         <v>300021</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F141" s="14">
         <v>0</v>
@@ -12736,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="X141" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12744,10 +12745,10 @@
         <v>300022</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F142" s="14">
         <v>0</v>
@@ -12804,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="X142" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12812,10 +12813,10 @@
         <v>300023</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F143" s="14">
         <v>0</v>
@@ -12880,10 +12881,10 @@
         <v>300031</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F144" s="14">
         <v>0</v>
@@ -12948,10 +12949,10 @@
         <v>300032</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F145" s="14">
         <v>0</v>
@@ -13008,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="X145" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13016,10 +13017,10 @@
         <v>300033</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F146" s="14">
         <v>0</v>
@@ -13084,10 +13085,10 @@
         <v>300111</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F147" s="14">
         <v>0</v>
@@ -13144,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="X147" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13152,10 +13153,10 @@
         <v>300112</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F148" s="14">
         <v>0</v>
@@ -13212,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="X148" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13220,10 +13221,10 @@
         <v>300113</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F149" s="14">
         <v>0</v>
@@ -13288,10 +13289,10 @@
         <v>300121</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F150" s="14">
         <v>0</v>
@@ -13348,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="X150" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13356,10 +13357,10 @@
         <v>300122</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F151" s="14">
         <v>0</v>
@@ -13416,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="X151" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13424,10 +13425,10 @@
         <v>300123</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F152" s="14">
         <v>0</v>
@@ -13492,10 +13493,10 @@
         <v>300131</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E153" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F153" s="14">
         <v>0</v>
@@ -13560,10 +13561,10 @@
         <v>300132</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F154" s="14">
         <v>0</v>
@@ -13620,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="X154" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13628,10 +13629,10 @@
         <v>300133</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F155" s="14">
         <v>0</v>
@@ -13696,10 +13697,10 @@
         <v>300211</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F156" s="14">
         <v>0</v>
@@ -13756,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="X156" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="157" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13764,10 +13765,10 @@
         <v>300212</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F157" s="14">
         <v>0</v>
@@ -13824,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="X157" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13832,10 +13833,10 @@
         <v>300213</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F158" s="14">
         <v>0</v>
@@ -13900,10 +13901,10 @@
         <v>300221</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F159" s="14">
         <v>0</v>
@@ -13960,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="X159" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="160" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13968,10 +13969,10 @@
         <v>300222</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F160" s="14">
         <v>0</v>
@@ -14028,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="X160" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="161" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14036,10 +14037,10 @@
         <v>300223</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F161" s="14">
         <v>0</v>
@@ -14104,10 +14105,10 @@
         <v>300231</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F162" s="14">
         <v>0</v>
@@ -14172,10 +14173,10 @@
         <v>300232</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F163" s="14">
         <v>0</v>
@@ -14232,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="X163" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="164" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14240,10 +14241,10 @@
         <v>300233</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F164" s="14">
         <v>0</v>
@@ -14308,10 +14309,10 @@
         <v>300311</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F165" s="14">
         <v>0</v>
@@ -14368,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="X165" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14376,10 +14377,10 @@
         <v>300312</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F166" s="14">
         <v>0</v>
@@ -14436,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="X166" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14444,10 +14445,10 @@
         <v>300313</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F167" s="14">
         <v>0</v>
@@ -14512,10 +14513,10 @@
         <v>300321</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E168" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F168" s="14">
         <v>0</v>
@@ -14572,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="X168" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14580,10 +14581,10 @@
         <v>300322</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F169" s="14">
         <v>0</v>
@@ -14640,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="X169" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="170" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14648,10 +14649,10 @@
         <v>300323</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F170" s="14">
         <v>0</v>
@@ -14708,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="X170" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="171" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14716,10 +14717,10 @@
         <v>300331</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F171" s="14">
         <v>0</v>
@@ -14776,7 +14777,7 @@
         <v>0</v>
       </c>
       <c r="X171" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="172" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14784,10 +14785,10 @@
         <v>300332</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F172" s="14">
         <v>0</v>
@@ -14844,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="X172" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="173" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14852,10 +14853,10 @@
         <v>300333</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F173" s="14">
         <v>0</v>
@@ -14912,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="X173" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="174" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
